--- a/20_営業/12_OIC共通/MD050/ERP_T_MD050_CCD_003_ジョブステータス登録_共通処理.xlsx
+++ b/20_営業/12_OIC共通/MD050/ERP_T_MD050_CCD_003_ジョブステータス登録_共通処理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\12_製造\10_設計書\MD050\黒化\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\MD050\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26910" yWindow="0" windowWidth="23010" windowHeight="10305"/>
+    <workbookView xWindow="26910" yWindow="2400" windowWidth="23010" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="193">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -1000,10 +1000,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>再実行方法</t>
     </r>
@@ -1464,14 +1460,32 @@
     <t>Issue1.0</t>
   </si>
   <si>
-    <t>Issue1.0</t>
+    <t>SCSK 久保田芳夫</t>
+  </si>
+  <si>
+    <t>Issue化</t>
+  </si>
+  <si>
+    <t>SCSK 細沼翔太</t>
+    <rPh sb="5" eb="9">
+      <t>ホソヌマショウタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SCSK 久保田芳夫</t>
-  </si>
-  <si>
-    <t>Issue化</t>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1481,7 +1495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1745,6 +1759,28 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2135,7 +2171,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2365,10 +2401,10 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2389,23 +2425,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2443,32 +2473,27 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2488,7 +2513,52 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2519,31 +2589,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2559,13 +2604,79 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2577,71 +2688,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2664,13 +2719,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2689,6 +2737,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2698,6 +2752,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFF5FDCF"/>
       <color rgb="FFFDD5FE"/>
@@ -3260,7 +3316,7 @@
         <xdr:cNvPr id="64" name="正方形/長方形 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3431,7 +3487,7 @@
         <xdr:cNvPr id="65" name="テキスト ボックス 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3631,7 @@
         <xdr:cNvPr id="66" name="テキスト ボックス 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,7 +3844,7 @@
         <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3845,7 +3901,7 @@
         <xdr:cNvPr id="69" name="テキスト ボックス 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3997,7 +4053,7 @@
         <xdr:cNvPr id="70" name="正方形/長方形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4176,7 +4232,7 @@
         <xdr:cNvPr id="71" name="正方形/長方形 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4347,7 +4403,7 @@
         <xdr:cNvPr id="72" name="正方形/長方形 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4539,7 +4595,7 @@
         <xdr:cNvPr id="73" name="正方形/長方形 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4731,7 +4787,7 @@
         <xdr:cNvPr id="74" name="フローチャート : 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4911,7 +4967,7 @@
         <xdr:cNvPr id="75" name="フローチャート : 書類 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5091,7 +5147,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5147,7 +5203,7 @@
         <xdr:cNvPr id="77" name="正方形/長方形 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5347,7 +5403,7 @@
         <xdr:cNvPr id="78" name="正方形/長方形 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5510,7 +5566,7 @@
         <xdr:cNvPr id="79" name="フローチャート: 処理 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5596,7 +5652,7 @@
         <xdr:cNvPr id="80" name="フローチャート: 代替処理 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5685,7 +5741,7 @@
         <xdr:cNvPr id="81" name="フローチャート: 処理 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5808,7 +5864,7 @@
         <xdr:cNvPr id="2" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5865,7 +5921,7 @@
         <xdr:cNvPr id="2" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8699,7 +8755,7 @@
         <xdr:cNvPr id="40" name="フローチャート: 処理 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8772,7 +8828,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8858,7 +8914,7 @@
         <xdr:cNvPr id="42" name="フローチャート: 処理 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8936,7 +8992,7 @@
         <xdr:cNvPr id="43" name="直線コネクタ 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8987,7 +9043,7 @@
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9078,7 +9134,7 @@
         <xdr:cNvPr id="2" name="Text Box 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9155,7 +9211,7 @@
         <xdr:cNvPr id="3" name="Text Box 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10549,7 +10605,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8.25" style="2"/>
     <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
@@ -10683,10 +10739,10 @@
     <col min="16129" max="16384" width="8.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="7.5" customHeight="1">
+    <row r="2" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
       <c r="D2" s="3"/>
@@ -10694,121 +10750,121 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="28.5">
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="83"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="84">
         <v>44741</v>
       </c>
       <c r="E15" s="83"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="C16" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="84">
-        <v>44979</v>
-      </c>
-      <c r="E16" s="83"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>173</v>
+      </c>
+      <c r="D16" s="85">
+        <v>45574</v>
+      </c>
+      <c r="E16" s="86"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="C17" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="83"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="C18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="191" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="192"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="2" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D24" s="82"/>
       <c r="E24" s="82"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="82"/>
@@ -10843,7 +10899,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="64" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="64" customWidth="1"/>
@@ -11231,8 +11287,8 @@
     <col min="16135" max="16384" width="8.25" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="62" customFormat="1" ht="10.5"/>
-    <row r="2" spans="2:7" ht="7.5" customHeight="1">
+    <row r="1" spans="2:7" s="62" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -11240,31 +11296,31 @@
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
     </row>
-    <row r="3" spans="2:7" s="65" customFormat="1" ht="21" customHeight="1">
+    <row r="3" spans="2:7" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1">
+    <row r="4" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="6" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="7" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="8" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="9" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="10" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="11" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="12" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="13" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="14" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="15" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="16" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="17" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="18" spans="2:7" s="62" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="19" spans="2:7" ht="7.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:7" s="66" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:7" s="62" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -11272,43 +11328,43 @@
       <c r="F19" s="63"/>
       <c r="G19" s="63"/>
     </row>
-    <row r="20" spans="2:7" s="65" customFormat="1" ht="21" customHeight="1">
+    <row r="20" spans="2:7" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="21" customHeight="1"/>
-    <row r="22" spans="2:7" ht="7.5" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
     </row>
-    <row r="23" spans="2:7" s="67" customFormat="1" ht="21" customHeight="1">
+    <row r="23" spans="2:7" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="62" customFormat="1" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:7" s="62" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="68" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" s="62" customFormat="1" ht="11.25" thickBot="1"/>
-    <row r="25" spans="2:7" s="62" customFormat="1" ht="12" customHeight="1">
-      <c r="B25" s="68" t="s">
+      <c r="C25" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="D25" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="E25" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="F25" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="G25" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="42" customFormat="1" ht="10.5">
+    </row>
+    <row r="26" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B26" s="71"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
@@ -11316,7 +11372,7 @@
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
     </row>
-    <row r="27" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="27" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B27" s="71"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
@@ -11324,7 +11380,7 @@
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
     </row>
-    <row r="28" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="28" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
@@ -11332,7 +11388,7 @@
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
     </row>
-    <row r="29" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="29" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B29" s="71"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -11340,7 +11396,7 @@
       <c r="F29" s="72"/>
       <c r="G29" s="74"/>
     </row>
-    <row r="30" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="30" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
@@ -11348,7 +11404,7 @@
       <c r="F30" s="72"/>
       <c r="G30" s="74"/>
     </row>
-    <row r="31" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="31" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
@@ -11356,7 +11412,7 @@
       <c r="F31" s="72"/>
       <c r="G31" s="74"/>
     </row>
-    <row r="32" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="32" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -11364,7 +11420,7 @@
       <c r="F32" s="72"/>
       <c r="G32" s="74"/>
     </row>
-    <row r="33" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="33" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B33" s="71"/>
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
@@ -11372,7 +11428,7 @@
       <c r="F33" s="72"/>
       <c r="G33" s="74"/>
     </row>
-    <row r="34" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="34" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B34" s="71"/>
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
@@ -11380,7 +11436,7 @@
       <c r="F34" s="72"/>
       <c r="G34" s="74"/>
     </row>
-    <row r="35" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="35" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
@@ -11388,7 +11444,7 @@
       <c r="F35" s="72"/>
       <c r="G35" s="74"/>
     </row>
-    <row r="36" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="36" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -11396,7 +11452,7 @@
       <c r="F36" s="72"/>
       <c r="G36" s="74"/>
     </row>
-    <row r="37" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="37" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
@@ -11404,7 +11460,7 @@
       <c r="F37" s="72"/>
       <c r="G37" s="74"/>
     </row>
-    <row r="38" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="38" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
@@ -11412,7 +11468,7 @@
       <c r="F38" s="72"/>
       <c r="G38" s="74"/>
     </row>
-    <row r="39" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="39" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
@@ -11420,7 +11476,7 @@
       <c r="F39" s="72"/>
       <c r="G39" s="74"/>
     </row>
-    <row r="40" spans="2:7" s="42" customFormat="1" ht="10.5">
+    <row r="40" spans="2:7" s="42" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B40" s="71"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -11428,7 +11484,7 @@
       <c r="F40" s="72"/>
       <c r="G40" s="74"/>
     </row>
-    <row r="41" spans="2:7" s="42" customFormat="1" ht="11.25" thickBot="1">
+    <row r="41" spans="2:7" s="42" customFormat="1" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="75"/>
       <c r="C41" s="76"/>
       <c r="D41" s="76"/>
@@ -11436,7 +11492,7 @@
       <c r="F41" s="76"/>
       <c r="G41" s="77"/>
     </row>
-    <row r="42" spans="2:7" s="62" customFormat="1" ht="10.5"/>
+    <row r="42" spans="2:7" s="62" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11455,9 +11511,11 @@
   </sheetPr>
   <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
@@ -11909,35 +11967,35 @@
     <col min="16135" max="16384" width="8.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="26" customFormat="1" ht="10.5"/>
-    <row r="2" spans="2:5" ht="7.5" customHeight="1">
+    <row r="1" spans="2:5" s="26" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="33.75" customHeight="1">
+    <row r="3" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="87" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="87"/>
     </row>
-    <row r="4" spans="2:5" ht="7.5" customHeight="1">
+    <row r="4" spans="2:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="21" customHeight="1">
+    <row r="5" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="88"/>
     </row>
-    <row r="6" spans="2:5" ht="12.75" thickBot="1">
+    <row r="6" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>53</v>
       </c>
@@ -11951,7 +12009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="18">
         <v>44741</v>
       </c>
@@ -11965,45 +12023,53 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="18">
         <v>44979</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="18">
+        <v>45574</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="2:5" ht="12.75" thickBot="1">
+    <row r="13" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
     </row>
   </sheetData>
@@ -12035,14 +12101,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="29" customWidth="1"/>
     <col min="2" max="16384" width="3" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" s="26" customFormat="1" ht="10.5"/>
-    <row r="2" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="1" spans="2:46" s="26" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -12089,18 +12155,18 @@
       <c r="AS2" s="27"/>
       <c r="AT2" s="27"/>
     </row>
-    <row r="3" spans="2:46" ht="14.25">
+    <row r="3" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:46" ht="10.5" customHeight="1">
+    <row r="4" spans="2:46" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30"/>
       <c r="D4" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="6" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -12147,18 +12213,18 @@
       <c r="AS6" s="27"/>
       <c r="AT6" s="27"/>
     </row>
-    <row r="7" spans="2:46" ht="14.25">
+    <row r="7" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:46" ht="10.5" customHeight="1">
+    <row r="8" spans="2:46" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="30"/>
       <c r="AN8" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="30" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -12205,13 +12271,13 @@
       <c r="AS30" s="27"/>
       <c r="AT30" s="27"/>
     </row>
-    <row r="31" spans="2:46" ht="17.25">
+    <row r="31" spans="2:46" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B31" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="30"/>
     </row>
-    <row r="33" spans="2:46">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D33" s="31">
         <v>1</v>
       </c>
@@ -12219,7 +12285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:46">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D34" s="31">
         <v>2</v>
       </c>
@@ -12227,7 +12293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="36" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -12274,19 +12340,19 @@
       <c r="AS36" s="27"/>
       <c r="AT36" s="27"/>
     </row>
-    <row r="37" spans="2:46" ht="14.25">
+    <row r="37" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B37" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:46" ht="12.75" customHeight="1">
+    <row r="39" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="33"/>
       <c r="E39" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:46" ht="12.75" customHeight="1"/>
-    <row r="41" spans="2:46" ht="12.75" customHeight="1">
+    <row r="40" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E41" s="89" t="s">
         <v>60</v>
       </c>
@@ -12330,254 +12396,254 @@
       <c r="AM41" s="90"/>
       <c r="AN41" s="90"/>
       <c r="AO41" s="91"/>
-      <c r="AP41" s="110" t="s">
+      <c r="AP41" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="AQ41" s="111"/>
-      <c r="AR41" s="111"/>
-      <c r="AS41" s="111"/>
-      <c r="AT41" s="112"/>
-    </row>
-    <row r="42" spans="2:46" ht="12.75" customHeight="1">
-      <c r="E42" s="98" t="s">
+      <c r="AQ41" s="93"/>
+      <c r="AR41" s="93"/>
+      <c r="AS41" s="93"/>
+      <c r="AT41" s="94"/>
+    </row>
+    <row r="42" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="101" t="s">
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="K42" s="102"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="98" t="s">
+      <c r="K42" s="99"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="99"/>
-      <c r="U42" s="99"/>
-      <c r="V42" s="99"/>
-      <c r="W42" s="99"/>
-      <c r="X42" s="99"/>
-      <c r="Y42" s="99"/>
-      <c r="Z42" s="99"/>
-      <c r="AA42" s="99"/>
-      <c r="AB42" s="99"/>
-      <c r="AC42" s="99"/>
-      <c r="AD42" s="99"/>
-      <c r="AE42" s="99"/>
-      <c r="AF42" s="99"/>
-      <c r="AG42" s="99"/>
-      <c r="AH42" s="99"/>
-      <c r="AI42" s="99"/>
-      <c r="AJ42" s="99"/>
-      <c r="AK42" s="99"/>
-      <c r="AL42" s="99"/>
-      <c r="AM42" s="99"/>
-      <c r="AN42" s="99"/>
-      <c r="AO42" s="100"/>
-      <c r="AP42" s="104"/>
-      <c r="AQ42" s="105"/>
-      <c r="AR42" s="105"/>
-      <c r="AS42" s="105"/>
-      <c r="AT42" s="106"/>
-    </row>
-    <row r="43" spans="2:46" ht="12.75" customHeight="1">
-      <c r="E43" s="107" t="s">
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="96"/>
+      <c r="X42" s="96"/>
+      <c r="Y42" s="96"/>
+      <c r="Z42" s="96"/>
+      <c r="AA42" s="96"/>
+      <c r="AB42" s="96"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="96"/>
+      <c r="AE42" s="96"/>
+      <c r="AF42" s="96"/>
+      <c r="AG42" s="96"/>
+      <c r="AH42" s="96"/>
+      <c r="AI42" s="96"/>
+      <c r="AJ42" s="96"/>
+      <c r="AK42" s="96"/>
+      <c r="AL42" s="96"/>
+      <c r="AM42" s="96"/>
+      <c r="AN42" s="96"/>
+      <c r="AO42" s="97"/>
+      <c r="AP42" s="101"/>
+      <c r="AQ42" s="102"/>
+      <c r="AR42" s="102"/>
+      <c r="AS42" s="102"/>
+      <c r="AT42" s="103"/>
+    </row>
+    <row r="43" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="98" t="s">
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="99"/>
-      <c r="W43" s="99"/>
-      <c r="X43" s="99"/>
-      <c r="Y43" s="99"/>
-      <c r="Z43" s="99"/>
-      <c r="AA43" s="99"/>
-      <c r="AB43" s="99"/>
-      <c r="AC43" s="99"/>
-      <c r="AD43" s="99"/>
-      <c r="AE43" s="99"/>
-      <c r="AF43" s="99"/>
-      <c r="AG43" s="99"/>
-      <c r="AH43" s="99"/>
-      <c r="AI43" s="99"/>
-      <c r="AJ43" s="99"/>
-      <c r="AK43" s="99"/>
-      <c r="AL43" s="99"/>
-      <c r="AM43" s="99"/>
-      <c r="AN43" s="99"/>
-      <c r="AO43" s="100"/>
-      <c r="AP43" s="104"/>
-      <c r="AQ43" s="105"/>
-      <c r="AR43" s="105"/>
-      <c r="AS43" s="105"/>
-      <c r="AT43" s="106"/>
-    </row>
-    <row r="44" spans="2:46" ht="12.75" customHeight="1">
-      <c r="E44" s="107" t="s">
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="96"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="96"/>
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="96"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="96"/>
+      <c r="AE43" s="96"/>
+      <c r="AF43" s="96"/>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="96"/>
+      <c r="AI43" s="96"/>
+      <c r="AJ43" s="96"/>
+      <c r="AK43" s="96"/>
+      <c r="AL43" s="96"/>
+      <c r="AM43" s="96"/>
+      <c r="AN43" s="96"/>
+      <c r="AO43" s="97"/>
+      <c r="AP43" s="101"/>
+      <c r="AQ43" s="102"/>
+      <c r="AR43" s="102"/>
+      <c r="AS43" s="102"/>
+      <c r="AT43" s="103"/>
+    </row>
+    <row r="44" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="98" t="s">
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="99"/>
-      <c r="U44" s="99"/>
-      <c r="V44" s="99"/>
-      <c r="W44" s="99"/>
-      <c r="X44" s="99"/>
-      <c r="Y44" s="99"/>
-      <c r="Z44" s="99"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="99"/>
-      <c r="AC44" s="99"/>
-      <c r="AD44" s="99"/>
-      <c r="AE44" s="99"/>
-      <c r="AF44" s="99"/>
-      <c r="AG44" s="99"/>
-      <c r="AH44" s="99"/>
-      <c r="AI44" s="99"/>
-      <c r="AJ44" s="99"/>
-      <c r="AK44" s="99"/>
-      <c r="AL44" s="99"/>
-      <c r="AM44" s="99"/>
-      <c r="AN44" s="99"/>
-      <c r="AO44" s="100"/>
-      <c r="AP44" s="104"/>
-      <c r="AQ44" s="105"/>
-      <c r="AR44" s="105"/>
-      <c r="AS44" s="105"/>
-      <c r="AT44" s="106"/>
-    </row>
-    <row r="45" spans="2:46" ht="12.75" customHeight="1">
-      <c r="E45" s="98" t="s">
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="96"/>
+      <c r="W44" s="96"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="96"/>
+      <c r="Z44" s="96"/>
+      <c r="AA44" s="96"/>
+      <c r="AB44" s="96"/>
+      <c r="AC44" s="96"/>
+      <c r="AD44" s="96"/>
+      <c r="AE44" s="96"/>
+      <c r="AF44" s="96"/>
+      <c r="AG44" s="96"/>
+      <c r="AH44" s="96"/>
+      <c r="AI44" s="96"/>
+      <c r="AJ44" s="96"/>
+      <c r="AK44" s="96"/>
+      <c r="AL44" s="96"/>
+      <c r="AM44" s="96"/>
+      <c r="AN44" s="96"/>
+      <c r="AO44" s="97"/>
+      <c r="AP44" s="101"/>
+      <c r="AQ44" s="102"/>
+      <c r="AR44" s="102"/>
+      <c r="AS44" s="102"/>
+      <c r="AT44" s="103"/>
+    </row>
+    <row r="45" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="98" t="s">
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="N45" s="99"/>
-      <c r="O45" s="99"/>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="99"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="99"/>
-      <c r="W45" s="99"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="99"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="99"/>
-      <c r="AD45" s="99"/>
-      <c r="AE45" s="99"/>
-      <c r="AF45" s="99"/>
-      <c r="AG45" s="99"/>
-      <c r="AH45" s="99"/>
-      <c r="AI45" s="99"/>
-      <c r="AJ45" s="99"/>
-      <c r="AK45" s="99"/>
-      <c r="AL45" s="99"/>
-      <c r="AM45" s="99"/>
-      <c r="AN45" s="99"/>
-      <c r="AO45" s="100"/>
-      <c r="AP45" s="104"/>
-      <c r="AQ45" s="105"/>
-      <c r="AR45" s="105"/>
-      <c r="AS45" s="105"/>
-      <c r="AT45" s="106"/>
-    </row>
-    <row r="46" spans="2:46" ht="12.75" customHeight="1">
-      <c r="E46" s="107"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="108"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="108"/>
-      <c r="Z46" s="108"/>
-      <c r="AA46" s="108"/>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="108"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108"/>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108"/>
-      <c r="AK46" s="108"/>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="108"/>
-      <c r="AN46" s="108"/>
-      <c r="AO46" s="109"/>
-      <c r="AP46" s="104"/>
-      <c r="AQ46" s="105"/>
-      <c r="AR46" s="105"/>
-      <c r="AS46" s="105"/>
-      <c r="AT46" s="106"/>
-    </row>
-    <row r="47" spans="2:46" ht="12.75" customHeight="1"/>
-    <row r="48" spans="2:46" ht="12.75" customHeight="1">
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="96"/>
+      <c r="V45" s="96"/>
+      <c r="W45" s="96"/>
+      <c r="X45" s="96"/>
+      <c r="Y45" s="96"/>
+      <c r="Z45" s="96"/>
+      <c r="AA45" s="96"/>
+      <c r="AB45" s="96"/>
+      <c r="AC45" s="96"/>
+      <c r="AD45" s="96"/>
+      <c r="AE45" s="96"/>
+      <c r="AF45" s="96"/>
+      <c r="AG45" s="96"/>
+      <c r="AH45" s="96"/>
+      <c r="AI45" s="96"/>
+      <c r="AJ45" s="96"/>
+      <c r="AK45" s="96"/>
+      <c r="AL45" s="96"/>
+      <c r="AM45" s="96"/>
+      <c r="AN45" s="96"/>
+      <c r="AO45" s="97"/>
+      <c r="AP45" s="101"/>
+      <c r="AQ45" s="102"/>
+      <c r="AR45" s="102"/>
+      <c r="AS45" s="102"/>
+      <c r="AT45" s="103"/>
+    </row>
+    <row r="46" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="104"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="105"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="105"/>
+      <c r="X46" s="105"/>
+      <c r="Y46" s="105"/>
+      <c r="Z46" s="105"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="105"/>
+      <c r="AD46" s="105"/>
+      <c r="AE46" s="105"/>
+      <c r="AF46" s="105"/>
+      <c r="AG46" s="105"/>
+      <c r="AH46" s="105"/>
+      <c r="AI46" s="105"/>
+      <c r="AJ46" s="105"/>
+      <c r="AK46" s="105"/>
+      <c r="AL46" s="105"/>
+      <c r="AM46" s="105"/>
+      <c r="AN46" s="105"/>
+      <c r="AO46" s="106"/>
+      <c r="AP46" s="101"/>
+      <c r="AQ46" s="102"/>
+      <c r="AR46" s="102"/>
+      <c r="AS46" s="102"/>
+      <c r="AT46" s="103"/>
+    </row>
+    <row r="47" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="78" t="s">
         <v>71</v>
       </c>
@@ -12623,7 +12689,7 @@
       <c r="AS48" s="78"/>
       <c r="AT48" s="78"/>
     </row>
-    <row r="49" spans="5:46" ht="12.75" customHeight="1">
+    <row r="49" spans="5:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="78"/>
       <c r="F49" s="78"/>
       <c r="G49" s="78"/>
@@ -12667,7 +12733,7 @@
       <c r="AS49" s="78"/>
       <c r="AT49" s="78"/>
     </row>
-    <row r="50" spans="5:46" ht="12.75" customHeight="1">
+    <row r="50" spans="5:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="89" t="s">
         <v>72</v>
       </c>
@@ -12715,72 +12781,56 @@
       <c r="AS50" s="90"/>
       <c r="AT50" s="91"/>
     </row>
-    <row r="51" spans="5:46" ht="12.75" customHeight="1">
-      <c r="E51" s="92" t="s">
+    <row r="51" spans="5:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="96"/>
-      <c r="U51" s="96"/>
-      <c r="V51" s="96"/>
-      <c r="W51" s="96"/>
-      <c r="X51" s="96"/>
-      <c r="Y51" s="96"/>
-      <c r="Z51" s="96"/>
-      <c r="AA51" s="96"/>
-      <c r="AB51" s="96"/>
-      <c r="AC51" s="96"/>
-      <c r="AD51" s="96"/>
-      <c r="AE51" s="96"/>
-      <c r="AF51" s="96"/>
-      <c r="AG51" s="96"/>
-      <c r="AH51" s="96"/>
-      <c r="AI51" s="96"/>
-      <c r="AJ51" s="96"/>
-      <c r="AK51" s="96"/>
-      <c r="AL51" s="96"/>
-      <c r="AM51" s="96"/>
-      <c r="AN51" s="96"/>
-      <c r="AO51" s="96"/>
-      <c r="AP51" s="96"/>
-      <c r="AQ51" s="96"/>
-      <c r="AR51" s="96"/>
-      <c r="AS51" s="96"/>
-      <c r="AT51" s="97"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="111"/>
+      <c r="AF51" s="111"/>
+      <c r="AG51" s="111"/>
+      <c r="AH51" s="111"/>
+      <c r="AI51" s="111"/>
+      <c r="AJ51" s="111"/>
+      <c r="AK51" s="111"/>
+      <c r="AL51" s="111"/>
+      <c r="AM51" s="111"/>
+      <c r="AN51" s="111"/>
+      <c r="AO51" s="111"/>
+      <c r="AP51" s="111"/>
+      <c r="AQ51" s="111"/>
+      <c r="AR51" s="111"/>
+      <c r="AS51" s="111"/>
+      <c r="AT51" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:AO41"/>
-    <mergeCell ref="AP41:AT41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:AO42"/>
-    <mergeCell ref="AP42:AT42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:AO43"/>
-    <mergeCell ref="AP43:AT43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:AO44"/>
-    <mergeCell ref="AP44:AT44"/>
     <mergeCell ref="E50:I50"/>
     <mergeCell ref="J50:AT50"/>
     <mergeCell ref="E51:I51"/>
@@ -12793,6 +12843,22 @@
     <mergeCell ref="J46:L46"/>
     <mergeCell ref="M46:AO46"/>
     <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:AO43"/>
+    <mergeCell ref="AP43:AT43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:AO44"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:AO41"/>
+    <mergeCell ref="AP41:AT41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:AO42"/>
+    <mergeCell ref="AP42:AT42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12814,7 +12880,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="29" customWidth="1"/>
     <col min="2" max="5" width="3" style="29"/>
@@ -12822,7 +12888,7 @@
     <col min="7" max="16384" width="3" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="2" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -12869,15 +12935,15 @@
       <c r="AS2" s="27"/>
       <c r="AT2" s="27"/>
     </row>
-    <row r="3" spans="2:46" ht="14.25">
+    <row r="3" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:46" ht="14.25">
+    <row r="4" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C4" s="32"/>
     </row>
-    <row r="6" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="6" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -12924,12 +12990,12 @@
       <c r="AS6" s="27"/>
       <c r="AT6" s="27"/>
     </row>
-    <row r="7" spans="2:46" ht="14.25">
+    <row r="7" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C7" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:46">
+    <row r="9" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D9" s="31" t="s">
         <v>31</v>
       </c>
@@ -12960,7 +13026,7 @@
       <c r="AC9" s="31"/>
       <c r="AD9" s="31"/>
     </row>
-    <row r="10" spans="2:46">
+    <row r="10" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -12989,172 +13055,172 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
     </row>
-    <row r="11" spans="2:46">
+    <row r="11" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D11" s="31"/>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123" t="s">
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-    </row>
-    <row r="12" spans="2:46">
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+    </row>
+    <row r="12" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D12" s="31"/>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-    </row>
-    <row r="13" spans="2:46">
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="115"/>
+    </row>
+    <row r="13" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D13" s="31"/>
-      <c r="E13" s="118" t="s">
+      <c r="E13" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="119" t="s">
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-    </row>
-    <row r="14" spans="2:46">
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="115"/>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D14" s="31"/>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="119" t="s">
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-    </row>
-    <row r="15" spans="2:46">
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D15" s="31"/>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119" t="s">
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="119"/>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-    </row>
-    <row r="17" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
+      <c r="AD15" s="115"/>
+    </row>
+    <row r="17" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -13201,12 +13267,12 @@
       <c r="AS17" s="27"/>
       <c r="AT17" s="27"/>
     </row>
-    <row r="18" spans="2:46" ht="14.25">
+    <row r="18" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C18" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:46">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D20" s="31" t="s">
         <v>2</v>
       </c>
@@ -13243,7 +13309,7 @@
       <c r="AI20" s="31"/>
       <c r="AJ20" s="31"/>
     </row>
-    <row r="21" spans="2:46">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -13278,27 +13344,27 @@
       <c r="AI21" s="31"/>
       <c r="AJ21" s="31"/>
     </row>
-    <row r="22" spans="2:46">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D22" s="31"/>
-      <c r="E22" s="120" t="s">
+      <c r="E22" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="123" t="s">
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
@@ -13317,25 +13383,25 @@
       <c r="AI22" s="31"/>
       <c r="AJ22" s="31"/>
     </row>
-    <row r="23" spans="2:46">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D23" s="31"/>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
       <c r="T23" s="31"/>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
@@ -13354,25 +13420,25 @@
       <c r="AI23" s="31"/>
       <c r="AJ23" s="31"/>
     </row>
-    <row r="24" spans="2:46">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D24" s="31"/>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
@@ -13391,25 +13457,25 @@
       <c r="AI24" s="31"/>
       <c r="AJ24" s="31"/>
     </row>
-    <row r="25" spans="2:46">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D25" s="31"/>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
       <c r="T25" s="31"/>
       <c r="U25" s="31"/>
       <c r="V25" s="31"/>
@@ -13428,25 +13494,25 @@
       <c r="AI25" s="31"/>
       <c r="AJ25" s="31"/>
     </row>
-    <row r="26" spans="2:46">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D26" s="31"/>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
       <c r="T26" s="31"/>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
@@ -13465,25 +13531,25 @@
       <c r="AI26" s="31"/>
       <c r="AJ26" s="31"/>
     </row>
-    <row r="27" spans="2:46">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D27" s="31"/>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="117"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
       <c r="T27" s="31"/>
       <c r="U27" s="31"/>
       <c r="V27" s="31"/>
@@ -13502,25 +13568,25 @@
       <c r="AI27" s="31"/>
       <c r="AJ27" s="31"/>
     </row>
-    <row r="28" spans="2:46">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D28" s="31"/>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
       <c r="T28" s="31"/>
       <c r="U28" s="31"/>
       <c r="V28" s="31"/>
@@ -13539,25 +13605,25 @@
       <c r="AI28" s="31"/>
       <c r="AJ28" s="31"/>
     </row>
-    <row r="29" spans="2:46">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D29" s="31"/>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="117"/>
-      <c r="S29" s="117"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
       <c r="T29" s="31"/>
       <c r="U29" s="31"/>
       <c r="V29" s="31"/>
@@ -13576,25 +13642,25 @@
       <c r="AI29" s="31"/>
       <c r="AJ29" s="31"/>
     </row>
-    <row r="30" spans="2:46">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D30" s="31"/>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
       <c r="T30" s="31"/>
       <c r="U30" s="31"/>
       <c r="V30" s="31"/>
@@ -13613,25 +13679,25 @@
       <c r="AI30" s="31"/>
       <c r="AJ30" s="31"/>
     </row>
-    <row r="31" spans="2:46">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D31" s="31"/>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
       <c r="T31" s="31"/>
       <c r="U31" s="31"/>
       <c r="V31" s="31"/>
@@ -13650,7 +13716,7 @@
       <c r="AI31" s="31"/>
       <c r="AJ31" s="31"/>
     </row>
-    <row r="32" spans="2:46">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
@@ -13685,7 +13751,7 @@
       <c r="AI32" s="31"/>
       <c r="AJ32" s="31"/>
     </row>
-    <row r="33" spans="4:36">
+    <row r="33" spans="4:36" x14ac:dyDescent="0.15">
       <c r="D33" s="31" t="s">
         <v>9</v>
       </c>
@@ -13722,7 +13788,7 @@
       <c r="AI33" s="31"/>
       <c r="AJ33" s="31"/>
     </row>
-    <row r="34" spans="4:36">
+    <row r="34" spans="4:36" x14ac:dyDescent="0.15">
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
@@ -13757,57 +13823,52 @@
       <c r="AI34" s="31"/>
       <c r="AJ34" s="31"/>
     </row>
-    <row r="35" spans="4:36">
+    <row r="35" spans="4:36" x14ac:dyDescent="0.15">
       <c r="D35" s="31"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="115" t="s">
+      <c r="E35" s="119"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="115"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="115"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="115"/>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="115"/>
-      <c r="Z35" s="115"/>
-      <c r="AA35" s="115"/>
-      <c r="AB35" s="115"/>
-      <c r="AC35" s="115"/>
-      <c r="AD35" s="115"/>
-      <c r="AE35" s="115"/>
-      <c r="AF35" s="115"/>
-      <c r="AG35" s="115"/>
-      <c r="AH35" s="115"/>
-      <c r="AI35" s="115"/>
-      <c r="AJ35" s="115"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="123"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="123"/>
+      <c r="Y35" s="123"/>
+      <c r="Z35" s="123"/>
+      <c r="AA35" s="123"/>
+      <c r="AB35" s="123"/>
+      <c r="AC35" s="123"/>
+      <c r="AD35" s="123"/>
+      <c r="AE35" s="123"/>
+      <c r="AF35" s="123"/>
+      <c r="AG35" s="123"/>
+      <c r="AH35" s="123"/>
+      <c r="AI35" s="123"/>
+      <c r="AJ35" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L11:AD11"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:AD12"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:AD13"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:AD14"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:AD15"/>
-    <mergeCell ref="E22:P22"/>
-    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:AJ35"/>
+    <mergeCell ref="E29:P29"/>
+    <mergeCell ref="E30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="E31:P31"/>
+    <mergeCell ref="Q31:S31"/>
     <mergeCell ref="E23:P23"/>
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="E24:P24"/>
@@ -13821,13 +13882,18 @@
     <mergeCell ref="E28:P28"/>
     <mergeCell ref="Q28:S28"/>
     <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:AJ35"/>
-    <mergeCell ref="E29:P29"/>
-    <mergeCell ref="E30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="E31:P31"/>
-    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:AD14"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:AD15"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:AD11"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:AD12"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:AD13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13849,13 +13915,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="29" customWidth="1"/>
     <col min="2" max="16384" width="3" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="2" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -13902,20 +13968,20 @@
       <c r="AS2" s="27"/>
       <c r="AT2" s="27"/>
     </row>
-    <row r="3" spans="2:46" ht="14.25">
+    <row r="3" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:46" ht="14.25">
+    <row r="4" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C4" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:46" ht="12" customHeight="1">
+    <row r="5" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30"/>
     </row>
-    <row r="6" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="6" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -13962,12 +14028,12 @@
       <c r="AS6" s="27"/>
       <c r="AT6" s="27"/>
     </row>
-    <row r="7" spans="2:46" ht="14.25">
+    <row r="7" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C7" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:46">
+    <row r="9" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
@@ -13998,7 +14064,7 @@
       <c r="AC9" s="31"/>
       <c r="AD9" s="31"/>
     </row>
-    <row r="10" spans="2:46">
+    <row r="10" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -14027,172 +14093,172 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="31"/>
     </row>
-    <row r="11" spans="2:46">
+    <row r="11" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D11" s="31"/>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123" t="s">
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-    </row>
-    <row r="12" spans="2:46">
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+    </row>
+    <row r="12" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D12" s="31"/>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="118"/>
-    </row>
-    <row r="13" spans="2:46">
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+    </row>
+    <row r="13" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D13" s="31"/>
-      <c r="E13" s="118" t="s">
+      <c r="E13" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="119" t="s">
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-    </row>
-    <row r="14" spans="2:46">
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="115"/>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D14" s="31"/>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118" t="s">
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="118"/>
-    </row>
-    <row r="15" spans="2:46">
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D15" s="31"/>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119" t="s">
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="119"/>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-    </row>
-    <row r="17" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
+      <c r="AD15" s="115"/>
+    </row>
+    <row r="17" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -14239,12 +14305,12 @@
       <c r="AS17" s="27"/>
       <c r="AT17" s="27"/>
     </row>
-    <row r="18" spans="2:46" ht="14.25">
+    <row r="18" spans="2:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C18" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:46">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D20" s="31" t="s">
         <v>21</v>
       </c>
@@ -14281,7 +14347,7 @@
       <c r="AI20" s="31"/>
       <c r="AJ20" s="31"/>
     </row>
-    <row r="21" spans="2:46">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -14316,27 +14382,27 @@
       <c r="AI21" s="31"/>
       <c r="AJ21" s="31"/>
     </row>
-    <row r="22" spans="2:46">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D22" s="31"/>
-      <c r="E22" s="120" t="s">
+      <c r="E22" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="123" t="s">
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
@@ -14355,25 +14421,25 @@
       <c r="AI22" s="31"/>
       <c r="AJ22" s="31"/>
     </row>
-    <row r="23" spans="2:46">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D23" s="31"/>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
       <c r="T23" s="31"/>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
@@ -14392,25 +14458,25 @@
       <c r="AI23" s="31"/>
       <c r="AJ23" s="31"/>
     </row>
-    <row r="24" spans="2:46">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D24" s="31"/>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
@@ -14429,25 +14495,25 @@
       <c r="AI24" s="31"/>
       <c r="AJ24" s="31"/>
     </row>
-    <row r="25" spans="2:46">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D25" s="31"/>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
       <c r="T25" s="31"/>
       <c r="U25" s="31"/>
       <c r="V25" s="31"/>
@@ -14466,25 +14532,25 @@
       <c r="AI25" s="31"/>
       <c r="AJ25" s="31"/>
     </row>
-    <row r="26" spans="2:46">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D26" s="31"/>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
       <c r="T26" s="31"/>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
@@ -14503,25 +14569,25 @@
       <c r="AI26" s="31"/>
       <c r="AJ26" s="31"/>
     </row>
-    <row r="27" spans="2:46">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D27" s="31"/>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="117"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
       <c r="T27" s="31"/>
       <c r="U27" s="31"/>
       <c r="V27" s="31"/>
@@ -14540,25 +14606,25 @@
       <c r="AI27" s="31"/>
       <c r="AJ27" s="31"/>
     </row>
-    <row r="28" spans="2:46">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D28" s="31"/>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
       <c r="T28" s="31"/>
       <c r="U28" s="31"/>
       <c r="V28" s="31"/>
@@ -14577,27 +14643,27 @@
       <c r="AI28" s="31"/>
       <c r="AJ28" s="31"/>
     </row>
-    <row r="29" spans="2:46">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D29" s="31"/>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="117" t="s">
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="R29" s="117"/>
-      <c r="S29" s="117"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
       <c r="T29" s="31"/>
       <c r="U29" s="31"/>
       <c r="V29" s="31"/>
@@ -14616,25 +14682,25 @@
       <c r="AI29" s="31"/>
       <c r="AJ29" s="31"/>
     </row>
-    <row r="30" spans="2:46">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D30" s="31"/>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
       <c r="T30" s="31"/>
       <c r="U30" s="31"/>
       <c r="V30" s="31"/>
@@ -14653,25 +14719,25 @@
       <c r="AI30" s="31"/>
       <c r="AJ30" s="31"/>
     </row>
-    <row r="31" spans="2:46">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D31" s="31"/>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
       <c r="T31" s="31"/>
       <c r="U31" s="31"/>
       <c r="V31" s="31"/>
@@ -14690,7 +14756,7 @@
       <c r="AI31" s="31"/>
       <c r="AJ31" s="31"/>
     </row>
-    <row r="32" spans="2:46">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.15">
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
@@ -14725,7 +14791,7 @@
       <c r="AI32" s="31"/>
       <c r="AJ32" s="31"/>
     </row>
-    <row r="33" spans="4:36">
+    <row r="33" spans="4:36" x14ac:dyDescent="0.15">
       <c r="D33" s="31" t="s">
         <v>9</v>
       </c>
@@ -14762,7 +14828,7 @@
       <c r="AI33" s="31"/>
       <c r="AJ33" s="31"/>
     </row>
-    <row r="34" spans="4:36">
+    <row r="34" spans="4:36" x14ac:dyDescent="0.15">
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
@@ -14797,44 +14863,44 @@
       <c r="AI34" s="31"/>
       <c r="AJ34" s="31"/>
     </row>
-    <row r="35" spans="4:36">
+    <row r="35" spans="4:36" x14ac:dyDescent="0.15">
       <c r="D35" s="31"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="115" t="s">
+      <c r="E35" s="119"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="115"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="115"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="115"/>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="115"/>
-      <c r="Z35" s="115"/>
-      <c r="AA35" s="115"/>
-      <c r="AB35" s="115"/>
-      <c r="AC35" s="115"/>
-      <c r="AD35" s="115"/>
-      <c r="AE35" s="115"/>
-      <c r="AF35" s="115"/>
-      <c r="AG35" s="115"/>
-      <c r="AH35" s="115"/>
-      <c r="AI35" s="115"/>
-      <c r="AJ35" s="115"/>
-    </row>
-    <row r="36" spans="4:36">
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="123"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="123"/>
+      <c r="Y35" s="123"/>
+      <c r="Z35" s="123"/>
+      <c r="AA35" s="123"/>
+      <c r="AB35" s="123"/>
+      <c r="AC35" s="123"/>
+      <c r="AD35" s="123"/>
+      <c r="AE35" s="123"/>
+      <c r="AF35" s="123"/>
+      <c r="AG35" s="123"/>
+      <c r="AH35" s="123"/>
+      <c r="AI35" s="123"/>
+      <c r="AJ35" s="123"/>
+    </row>
+    <row r="36" spans="4:36" x14ac:dyDescent="0.15">
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
@@ -14871,30 +14937,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L11:AD11"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:AD12"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:AD13"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:AD14"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:AD15"/>
-    <mergeCell ref="E22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="E23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="E25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="E26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="E27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:S28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:AJ35"/>
     <mergeCell ref="E29:P29"/>
@@ -14903,6 +14945,30 @@
     <mergeCell ref="Q30:S30"/>
     <mergeCell ref="E31:P31"/>
     <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="E26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="E27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="E23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="E25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:AD14"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:AD15"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:AD11"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:AD12"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:AD13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14918,19 +14984,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AY79"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="29" customWidth="1"/>
     <col min="2" max="16384" width="3" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:51" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="2" spans="2:51" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -14977,20 +15044,20 @@
       <c r="AS2" s="27"/>
       <c r="AT2" s="27"/>
     </row>
-    <row r="3" spans="2:51" ht="14.25">
+    <row r="3" spans="2:51" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:51">
+    <row r="4" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C4" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:51">
+    <row r="5" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="2:51" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="6" spans="2:51" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -15037,542 +15104,542 @@
       <c r="AS6" s="27"/>
       <c r="AT6" s="27"/>
     </row>
-    <row r="7" spans="2:51" ht="18">
+    <row r="7" spans="2:51" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="2:51">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C9" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:51" ht="18">
+    <row r="11" spans="2:51" ht="18" x14ac:dyDescent="0.25">
       <c r="C11" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:51">
-      <c r="D13" s="123" t="s">
+    <row r="13" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D13" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="133" t="s">
         <v>100</v>
       </c>
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
-      <c r="O13" s="123" t="s">
+      <c r="O13" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="123"/>
-      <c r="Z13" s="123"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="123"/>
-      <c r="AC13" s="123"/>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="123" t="s">
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="123"/>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="123"/>
-      <c r="AJ13" s="123" t="s">
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="AK13" s="123"/>
-      <c r="AL13" s="123"/>
-      <c r="AM13" s="123"/>
-      <c r="AN13" s="123"/>
-      <c r="AO13" s="123"/>
-      <c r="AP13" s="123"/>
-      <c r="AQ13" s="123"/>
-      <c r="AR13" s="123"/>
-      <c r="AS13" s="123"/>
-      <c r="AT13" s="123"/>
-      <c r="AU13" s="123"/>
-      <c r="AV13" s="123"/>
-      <c r="AW13" s="123"/>
-      <c r="AX13" s="123"/>
-      <c r="AY13" s="123"/>
-    </row>
-    <row r="14" spans="2:51">
-      <c r="D14" s="124" t="s">
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+    </row>
+    <row r="14" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D14" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="101">
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="98">
         <v>1</v>
       </c>
-      <c r="M14" s="102"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="107" t="s">
+      <c r="M14" s="99"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="113" t="s">
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="106"/>
+      <c r="AJ14" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="120"/>
+      <c r="AO14" s="120"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="120"/>
+      <c r="AS14" s="120"/>
+      <c r="AT14" s="120"/>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="120"/>
+      <c r="AW14" s="120"/>
+      <c r="AX14" s="120"/>
+      <c r="AY14" s="121"/>
+    </row>
+    <row r="15" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="98">
+        <v>2</v>
+      </c>
+      <c r="M15" s="99"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="106"/>
+      <c r="AJ15" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="116"/>
-      <c r="AO14" s="116"/>
-      <c r="AP14" s="116"/>
-      <c r="AQ14" s="116"/>
-      <c r="AR14" s="116"/>
-      <c r="AS14" s="116"/>
-      <c r="AT14" s="116"/>
-      <c r="AU14" s="116"/>
-      <c r="AV14" s="116"/>
-      <c r="AW14" s="116"/>
-      <c r="AX14" s="116"/>
-      <c r="AY14" s="114"/>
-    </row>
-    <row r="15" spans="2:51">
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="101">
-        <v>2</v>
-      </c>
-      <c r="M15" s="102"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="116"/>
-      <c r="AB15" s="116"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="107" t="s">
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="121"/>
+    </row>
+    <row r="16" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="98">
+        <v>3</v>
+      </c>
+      <c r="M16" s="99"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="120"/>
+      <c r="AC16" s="120"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="106"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="120"/>
+      <c r="AO16" s="120"/>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="120"/>
+      <c r="AY16" s="121"/>
+    </row>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="98">
+        <v>4</v>
+      </c>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="120"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="106"/>
+      <c r="AJ17" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="120"/>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="120"/>
+      <c r="AR17" s="120"/>
+      <c r="AS17" s="120"/>
+      <c r="AT17" s="120"/>
+      <c r="AU17" s="120"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="120"/>
+      <c r="AY17" s="121"/>
+    </row>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="98">
+        <v>5</v>
+      </c>
+      <c r="M18" s="99"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="102"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="101"/>
+      <c r="AK18" s="102"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="102"/>
+      <c r="AO18" s="102"/>
+      <c r="AP18" s="102"/>
+      <c r="AQ18" s="102"/>
+      <c r="AR18" s="102"/>
+      <c r="AS18" s="102"/>
+      <c r="AT18" s="102"/>
+      <c r="AU18" s="102"/>
+      <c r="AV18" s="102"/>
+      <c r="AW18" s="102"/>
+      <c r="AX18" s="102"/>
+      <c r="AY18" s="103"/>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="98">
+        <v>6</v>
+      </c>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="120"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF19" s="131"/>
+      <c r="AG19" s="131"/>
+      <c r="AH19" s="131"/>
+      <c r="AI19" s="132"/>
+      <c r="AJ19" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="120"/>
+      <c r="AO19" s="120"/>
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="120"/>
+      <c r="AR19" s="120"/>
+      <c r="AS19" s="120"/>
+      <c r="AT19" s="120"/>
+      <c r="AU19" s="120"/>
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
+      <c r="AX19" s="120"/>
+      <c r="AY19" s="121"/>
+    </row>
+    <row r="20" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="98">
+        <v>7</v>
+      </c>
+      <c r="M20" s="99"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="113" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="116"/>
-      <c r="AN15" s="116"/>
-      <c r="AO15" s="116"/>
-      <c r="AP15" s="116"/>
-      <c r="AQ15" s="116"/>
-      <c r="AR15" s="116"/>
-      <c r="AS15" s="116"/>
-      <c r="AT15" s="116"/>
-      <c r="AU15" s="116"/>
-      <c r="AV15" s="116"/>
-      <c r="AW15" s="116"/>
-      <c r="AX15" s="116"/>
-      <c r="AY15" s="114"/>
-    </row>
-    <row r="16" spans="2:51">
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="101">
-        <v>3</v>
-      </c>
-      <c r="M16" s="102"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="114"/>
-      <c r="AE16" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="116"/>
-      <c r="AS16" s="116"/>
-      <c r="AT16" s="116"/>
-      <c r="AU16" s="116"/>
-      <c r="AV16" s="116"/>
-      <c r="AW16" s="116"/>
-      <c r="AX16" s="116"/>
-      <c r="AY16" s="114"/>
-    </row>
-    <row r="17" spans="2:51">
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="101">
-        <v>4</v>
-      </c>
-      <c r="M17" s="102"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="113" t="s">
-        <v>138</v>
-      </c>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="116"/>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="116"/>
-      <c r="AD17" s="114"/>
-      <c r="AE17" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="113" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK17" s="116"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="116"/>
-      <c r="AN17" s="116"/>
-      <c r="AO17" s="116"/>
-      <c r="AP17" s="116"/>
-      <c r="AQ17" s="116"/>
-      <c r="AR17" s="116"/>
-      <c r="AS17" s="116"/>
-      <c r="AT17" s="116"/>
-      <c r="AU17" s="116"/>
-      <c r="AV17" s="116"/>
-      <c r="AW17" s="116"/>
-      <c r="AX17" s="116"/>
-      <c r="AY17" s="114"/>
-    </row>
-    <row r="18" spans="2:51">
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="101">
-        <v>5</v>
-      </c>
-      <c r="M18" s="102"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
-      <c r="AB18" s="105"/>
-      <c r="AC18" s="105"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="105"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="105"/>
-      <c r="AL18" s="105"/>
-      <c r="AM18" s="105"/>
-      <c r="AN18" s="105"/>
-      <c r="AO18" s="105"/>
-      <c r="AP18" s="105"/>
-      <c r="AQ18" s="105"/>
-      <c r="AR18" s="105"/>
-      <c r="AS18" s="105"/>
-      <c r="AT18" s="105"/>
-      <c r="AU18" s="105"/>
-      <c r="AV18" s="105"/>
-      <c r="AW18" s="105"/>
-      <c r="AX18" s="105"/>
-      <c r="AY18" s="106"/>
-    </row>
-    <row r="19" spans="2:51">
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="101">
-        <v>6</v>
-      </c>
-      <c r="M19" s="102"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="116"/>
-      <c r="AB19" s="116"/>
-      <c r="AC19" s="116"/>
-      <c r="AD19" s="114"/>
-      <c r="AE19" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="109"/>
-      <c r="AJ19" s="113" t="s">
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="AK19" s="116"/>
-      <c r="AL19" s="116"/>
-      <c r="AM19" s="116"/>
-      <c r="AN19" s="116"/>
-      <c r="AO19" s="116"/>
-      <c r="AP19" s="116"/>
-      <c r="AQ19" s="116"/>
-      <c r="AR19" s="116"/>
-      <c r="AS19" s="116"/>
-      <c r="AT19" s="116"/>
-      <c r="AU19" s="116"/>
-      <c r="AV19" s="116"/>
-      <c r="AW19" s="116"/>
-      <c r="AX19" s="116"/>
-      <c r="AY19" s="114"/>
-    </row>
-    <row r="20" spans="2:51">
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="101">
-        <v>7</v>
-      </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK20" s="116"/>
-      <c r="AL20" s="116"/>
-      <c r="AM20" s="116"/>
-      <c r="AN20" s="116"/>
-      <c r="AO20" s="116"/>
-      <c r="AP20" s="116"/>
-      <c r="AQ20" s="116"/>
-      <c r="AR20" s="116"/>
-      <c r="AS20" s="116"/>
-      <c r="AT20" s="116"/>
-      <c r="AU20" s="116"/>
-      <c r="AV20" s="116"/>
-      <c r="AW20" s="116"/>
-      <c r="AX20" s="116"/>
-      <c r="AY20" s="114"/>
-    </row>
-    <row r="21" spans="2:51">
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="101">
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="120"/>
+      <c r="AO20" s="120"/>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="120"/>
+      <c r="AR20" s="120"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="120"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="121"/>
+    </row>
+    <row r="21" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="98">
         <v>8</v>
       </c>
-      <c r="M21" s="102"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="113" t="s">
-        <v>161</v>
-      </c>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="114"/>
-      <c r="AE21" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="116"/>
-      <c r="AL21" s="116"/>
-      <c r="AM21" s="116"/>
-      <c r="AN21" s="116"/>
-      <c r="AO21" s="116"/>
-      <c r="AP21" s="116"/>
-      <c r="AQ21" s="116"/>
-      <c r="AR21" s="116"/>
-      <c r="AS21" s="116"/>
-      <c r="AT21" s="116"/>
-      <c r="AU21" s="116"/>
-      <c r="AV21" s="116"/>
-      <c r="AW21" s="116"/>
-      <c r="AX21" s="116"/>
-      <c r="AY21" s="114"/>
-    </row>
-    <row r="22" spans="2:51">
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="106"/>
+      <c r="AJ21" s="119"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="120"/>
+      <c r="AO21" s="120"/>
+      <c r="AP21" s="120"/>
+      <c r="AQ21" s="120"/>
+      <c r="AR21" s="120"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="120"/>
+      <c r="AU21" s="120"/>
+      <c r="AV21" s="120"/>
+      <c r="AW21" s="120"/>
+      <c r="AX21" s="120"/>
+      <c r="AY21" s="121"/>
+    </row>
+    <row r="22" spans="2:51" x14ac:dyDescent="0.15">
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -15614,82 +15681,82 @@
       <c r="AP22" s="36"/>
       <c r="AQ22" s="36"/>
     </row>
-    <row r="23" spans="2:51" ht="18">
+    <row r="23" spans="2:51" ht="18" x14ac:dyDescent="0.25">
       <c r="C23" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:51">
-      <c r="D25" s="123" t="s">
+    <row r="25" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D25" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123" t="s">
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="123"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="123"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123" t="s">
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="123"/>
-      <c r="AJ25" s="123" t="s">
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="113"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="AK25" s="123"/>
-      <c r="AL25" s="123"/>
-      <c r="AM25" s="123"/>
-      <c r="AN25" s="123"/>
-      <c r="AO25" s="123"/>
-      <c r="AP25" s="123"/>
-      <c r="AQ25" s="123"/>
-      <c r="AR25" s="123"/>
-      <c r="AS25" s="123"/>
-      <c r="AT25" s="123"/>
-      <c r="AU25" s="123"/>
-      <c r="AV25" s="123"/>
-      <c r="AW25" s="123"/>
-      <c r="AX25" s="123"/>
-      <c r="AY25" s="123"/>
-    </row>
-    <row r="26" spans="2:51">
-      <c r="D26" s="134" t="s">
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="113"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="113"/>
+      <c r="AQ25" s="113"/>
+      <c r="AR25" s="113"/>
+      <c r="AS25" s="113"/>
+      <c r="AT25" s="113"/>
+      <c r="AU25" s="113"/>
+      <c r="AV25" s="113"/>
+      <c r="AW25" s="113"/>
+      <c r="AX25" s="113"/>
+      <c r="AY25" s="113"/>
+    </row>
+    <row r="26" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="D26" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="39"/>
@@ -15731,7 +15798,7 @@
       <c r="AX26" s="38"/>
       <c r="AY26" s="39"/>
     </row>
-    <row r="28" spans="2:51" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="28" spans="2:51" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -15778,27 +15845,27 @@
       <c r="AS28" s="27"/>
       <c r="AT28" s="27"/>
     </row>
-    <row r="29" spans="2:51" ht="18">
+    <row r="29" spans="2:51" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:51">
+    <row r="30" spans="2:51" x14ac:dyDescent="0.15">
       <c r="W30" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:51">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C31" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:51">
+    <row r="32" spans="2:51" x14ac:dyDescent="0.15">
       <c r="C32" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="26:42">
+    <row r="33" spans="26:42" x14ac:dyDescent="0.15">
       <c r="Z33" s="31" t="s">
         <v>83</v>
       </c>
@@ -15815,7 +15882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+    <row r="67" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -15862,53 +15929,53 @@
       <c r="AS67" s="27"/>
       <c r="AT67" s="27"/>
     </row>
-    <row r="68" spans="2:46" ht="18">
+    <row r="68" spans="2:46" ht="18" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="2:46">
+    <row r="70" spans="2:46" x14ac:dyDescent="0.15">
       <c r="C70" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="2:46">
-      <c r="D72" s="137"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="139" t="s">
+    <row r="72" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="D72" s="127"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="139"/>
-      <c r="K72" s="139"/>
-      <c r="L72" s="139"/>
-      <c r="M72" s="139"/>
-      <c r="N72" s="139"/>
-      <c r="O72" s="139"/>
-      <c r="P72" s="139"/>
-      <c r="Q72" s="139"/>
-      <c r="R72" s="139"/>
-      <c r="S72" s="139"/>
-      <c r="T72" s="139"/>
-      <c r="U72" s="139"/>
-      <c r="V72" s="139"/>
-      <c r="W72" s="139"/>
-      <c r="X72" s="139"/>
-      <c r="Y72" s="139"/>
-      <c r="Z72" s="139"/>
-      <c r="AA72" s="139"/>
-      <c r="AB72" s="139"/>
-      <c r="AC72" s="139"/>
-      <c r="AD72" s="139"/>
-      <c r="AE72" s="139"/>
-      <c r="AF72" s="139"/>
-      <c r="AG72" s="139"/>
-      <c r="AH72" s="139"/>
-      <c r="AI72" s="139"/>
-    </row>
-    <row r="74" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1">
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="129"/>
+      <c r="K72" s="129"/>
+      <c r="L72" s="129"/>
+      <c r="M72" s="129"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="129"/>
+      <c r="P72" s="129"/>
+      <c r="Q72" s="129"/>
+      <c r="R72" s="129"/>
+      <c r="S72" s="129"/>
+      <c r="T72" s="129"/>
+      <c r="U72" s="129"/>
+      <c r="V72" s="129"/>
+      <c r="W72" s="129"/>
+      <c r="X72" s="129"/>
+      <c r="Y72" s="129"/>
+      <c r="Z72" s="129"/>
+      <c r="AA72" s="129"/>
+      <c r="AB72" s="129"/>
+      <c r="AC72" s="129"/>
+      <c r="AD72" s="129"/>
+      <c r="AE72" s="129"/>
+      <c r="AF72" s="129"/>
+      <c r="AG72" s="129"/>
+      <c r="AH72" s="129"/>
+      <c r="AI72" s="129"/>
+    </row>
+    <row r="74" spans="2:46" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -15955,28 +16022,58 @@
       <c r="AS74" s="27"/>
       <c r="AT74" s="27"/>
     </row>
-    <row r="75" spans="2:46" ht="18">
+    <row r="75" spans="2:46" ht="18" x14ac:dyDescent="0.25">
       <c r="B75" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="2:46">
+    <row r="77" spans="2:46" x14ac:dyDescent="0.15">
       <c r="C77" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:46">
+    <row r="78" spans="2:46" x14ac:dyDescent="0.15">
       <c r="C78" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="2:46">
+    <row r="79" spans="2:46" x14ac:dyDescent="0.15">
       <c r="C79" s="31" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="AJ18:AY18"/>
+    <mergeCell ref="D14:K21"/>
+    <mergeCell ref="AJ21:AY21"/>
+    <mergeCell ref="AJ20:AY20"/>
+    <mergeCell ref="AJ13:AY13"/>
+    <mergeCell ref="AJ14:AY14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:AD15"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AJ15:AY15"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:AD13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:AD21"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="AJ25:AY25"/>
     <mergeCell ref="D26:K26"/>
     <mergeCell ref="D72:E72"/>
@@ -15993,36 +16090,6 @@
     <mergeCell ref="D25:K25"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O18:AD18"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:AD13"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:AD21"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="AJ13:AY13"/>
-    <mergeCell ref="AJ14:AY14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:AD15"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AJ15:AY15"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="AJ18:AY18"/>
-    <mergeCell ref="D14:K21"/>
-    <mergeCell ref="AJ21:AY21"/>
-    <mergeCell ref="AJ20:AY20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16038,20 +16105,21 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AV34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="48" customWidth="1"/>
     <col min="2" max="16384" width="3" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" s="40" customFormat="1" ht="12"/>
-    <row r="2" spans="2:48" s="42" customFormat="1" ht="7.5" customHeight="1">
+    <row r="1" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:48" s="42" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -16100,20 +16168,20 @@
       <c r="AU2" s="41"/>
       <c r="AV2" s="41"/>
     </row>
-    <row r="3" spans="2:48" s="40" customFormat="1" ht="14.25">
+    <row r="3" spans="2:48" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:48" s="40" customFormat="1" ht="12">
+    <row r="4" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C4" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:48" s="40" customFormat="1" ht="12">
+    <row r="5" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C5" s="44"/>
     </row>
-    <row r="6" spans="2:48" s="42" customFormat="1" ht="7.5" customHeight="1">
+    <row r="6" spans="2:48" s="42" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -16162,131 +16230,131 @@
       <c r="AU6" s="41"/>
       <c r="AV6" s="41"/>
     </row>
-    <row r="7" spans="2:48" s="40" customFormat="1" ht="12">
+    <row r="7" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C7" s="44"/>
     </row>
-    <row r="8" spans="2:48" s="40" customFormat="1" ht="14.25">
+    <row r="8" spans="2:48" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:48" s="46" customFormat="1">
-      <c r="B9" s="151" t="s">
+    <row r="9" spans="2:48" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="157" t="s">
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="AE9" s="168"/>
-      <c r="AF9" s="168"/>
-      <c r="AG9" s="168"/>
-      <c r="AH9" s="168"/>
-      <c r="AI9" s="168"/>
-      <c r="AJ9" s="168"/>
-      <c r="AK9" s="168"/>
-      <c r="AL9" s="168"/>
-      <c r="AM9" s="168"/>
-      <c r="AN9" s="168"/>
-      <c r="AO9" s="168"/>
-      <c r="AP9" s="168"/>
-      <c r="AQ9" s="168"/>
-      <c r="AR9" s="168"/>
-      <c r="AS9" s="168"/>
-      <c r="AT9" s="168"/>
-      <c r="AU9" s="168"/>
-      <c r="AV9" s="169"/>
-    </row>
-    <row r="10" spans="2:48" ht="13.5" customHeight="1">
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="156"/>
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="156"/>
+      <c r="AK9" s="156"/>
+      <c r="AL9" s="156"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="157"/>
+    </row>
+    <row r="10" spans="2:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="160" t="s">
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="163" t="s">
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170"/>
-      <c r="AB10" s="170"/>
-      <c r="AC10" s="171"/>
-      <c r="AD10" s="151" t="s">
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="161"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="AE10" s="146"/>
-      <c r="AF10" s="146"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="146"/>
-      <c r="AI10" s="146"/>
-      <c r="AJ10" s="146"/>
-      <c r="AK10" s="147"/>
-      <c r="AL10" s="160" t="s">
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="150"/>
+      <c r="AH10" s="150"/>
+      <c r="AI10" s="150"/>
+      <c r="AJ10" s="150"/>
+      <c r="AK10" s="151"/>
+      <c r="AL10" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="AM10" s="146"/>
-      <c r="AN10" s="146"/>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="151" t="s">
+      <c r="AM10" s="150"/>
+      <c r="AN10" s="150"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="AQ10" s="146"/>
-      <c r="AR10" s="146"/>
-      <c r="AS10" s="146"/>
-      <c r="AT10" s="146"/>
-      <c r="AU10" s="146"/>
-      <c r="AV10" s="147"/>
-    </row>
-    <row r="11" spans="2:48">
+      <c r="AQ10" s="150"/>
+      <c r="AR10" s="150"/>
+      <c r="AS10" s="150"/>
+      <c r="AT10" s="150"/>
+      <c r="AU10" s="150"/>
+      <c r="AV10" s="151"/>
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B11" s="49">
         <v>1</v>
       </c>
@@ -16300,25 +16368,25 @@
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="142"/>
-      <c r="AB11" s="142"/>
-      <c r="AC11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="145"/>
+      <c r="AC11" s="146"/>
       <c r="AD11" s="50" t="s">
         <v>114</v>
       </c>
@@ -16329,19 +16397,19 @@
       <c r="AI11" s="51"/>
       <c r="AJ11" s="51"/>
       <c r="AK11" s="52"/>
-      <c r="AL11" s="172"/>
-      <c r="AM11" s="172"/>
-      <c r="AN11" s="172"/>
-      <c r="AO11" s="172"/>
-      <c r="AP11" s="144"/>
-      <c r="AQ11" s="144"/>
-      <c r="AR11" s="144"/>
-      <c r="AS11" s="144"/>
-      <c r="AT11" s="144"/>
-      <c r="AU11" s="144"/>
-      <c r="AV11" s="144"/>
-    </row>
-    <row r="12" spans="2:48">
+      <c r="AL11" s="148"/>
+      <c r="AM11" s="148"/>
+      <c r="AN11" s="148"/>
+      <c r="AO11" s="148"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+    </row>
+    <row r="12" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B12" s="49">
         <v>2</v>
       </c>
@@ -16355,27 +16423,27 @@
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
       <c r="J12" s="52"/>
-      <c r="K12" s="140" t="s">
+      <c r="K12" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="142"/>
-      <c r="U12" s="142"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="142"/>
-      <c r="X12" s="142"/>
-      <c r="Y12" s="142"/>
-      <c r="Z12" s="142"/>
-      <c r="AA12" s="142"/>
-      <c r="AB12" s="142"/>
-      <c r="AC12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="146"/>
       <c r="AD12" s="50"/>
       <c r="AE12" s="51" t="s">
         <v>93</v>
@@ -16386,21 +16454,21 @@
       <c r="AI12" s="51"/>
       <c r="AJ12" s="51"/>
       <c r="AK12" s="52"/>
-      <c r="AL12" s="140" t="s">
+      <c r="AL12" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="AM12" s="140"/>
-      <c r="AN12" s="140"/>
-      <c r="AO12" s="140"/>
-      <c r="AP12" s="144"/>
-      <c r="AQ12" s="144"/>
-      <c r="AR12" s="144"/>
-      <c r="AS12" s="144"/>
-      <c r="AT12" s="144"/>
-      <c r="AU12" s="144"/>
-      <c r="AV12" s="144"/>
-    </row>
-    <row r="13" spans="2:48">
+      <c r="AM12" s="143"/>
+      <c r="AN12" s="143"/>
+      <c r="AO12" s="143"/>
+      <c r="AP12" s="147"/>
+      <c r="AQ12" s="147"/>
+      <c r="AR12" s="147"/>
+      <c r="AS12" s="147"/>
+      <c r="AT12" s="147"/>
+      <c r="AU12" s="147"/>
+      <c r="AV12" s="147"/>
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B13" s="49">
         <v>3</v>
       </c>
@@ -16411,27 +16479,27 @@
       <c r="H13" s="53"/>
       <c r="I13" s="51"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="140" t="s">
+      <c r="K13" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142"/>
-      <c r="U13" s="142"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="142"/>
-      <c r="X13" s="142"/>
-      <c r="Y13" s="142"/>
-      <c r="Z13" s="142"/>
-      <c r="AA13" s="142"/>
-      <c r="AB13" s="142"/>
-      <c r="AC13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="146"/>
       <c r="AD13" s="50"/>
       <c r="AE13" s="53" t="s">
         <v>116</v>
@@ -16442,27 +16510,27 @@
       <c r="AI13" s="51"/>
       <c r="AJ13" s="51"/>
       <c r="AK13" s="52"/>
-      <c r="AL13" s="140" t="s">
+      <c r="AL13" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="AM13" s="140"/>
-      <c r="AN13" s="140"/>
-      <c r="AO13" s="140"/>
-      <c r="AP13" s="144"/>
-      <c r="AQ13" s="144"/>
-      <c r="AR13" s="144"/>
-      <c r="AS13" s="144"/>
-      <c r="AT13" s="144"/>
-      <c r="AU13" s="144"/>
-      <c r="AV13" s="144"/>
-    </row>
-    <row r="14" spans="2:48">
+      <c r="AM13" s="143"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="143"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="147"/>
+      <c r="AS13" s="147"/>
+      <c r="AT13" s="147"/>
+      <c r="AU13" s="147"/>
+      <c r="AV13" s="147"/>
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B14" s="49">
         <v>4</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
@@ -16470,30 +16538,30 @@
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
       <c r="J14" s="52"/>
-      <c r="K14" s="140" t="s">
+      <c r="K14" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="142"/>
-      <c r="V14" s="142"/>
-      <c r="W14" s="142"/>
-      <c r="X14" s="142"/>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="142"/>
-      <c r="AC14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="146"/>
       <c r="AD14" s="50"/>
       <c r="AE14" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
@@ -16501,27 +16569,27 @@
       <c r="AI14" s="51"/>
       <c r="AJ14" s="51"/>
       <c r="AK14" s="52"/>
-      <c r="AL14" s="140" t="s">
+      <c r="AL14" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="AM14" s="140"/>
-      <c r="AN14" s="140"/>
-      <c r="AO14" s="140"/>
-      <c r="AP14" s="144"/>
-      <c r="AQ14" s="144"/>
-      <c r="AR14" s="144"/>
-      <c r="AS14" s="144"/>
-      <c r="AT14" s="144"/>
-      <c r="AU14" s="144"/>
-      <c r="AV14" s="144"/>
-    </row>
-    <row r="15" spans="2:48">
+      <c r="AM14" s="143"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="147"/>
+      <c r="AT14" s="147"/>
+      <c r="AU14" s="147"/>
+      <c r="AV14" s="147"/>
+    </row>
+    <row r="15" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B15" s="49">
         <v>5</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
@@ -16529,30 +16597,30 @@
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="52"/>
-      <c r="K15" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="143"/>
+      <c r="K15" s="143" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="146"/>
       <c r="AD15" s="50"/>
       <c r="AE15" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
@@ -16560,21 +16628,21 @@
       <c r="AI15" s="51"/>
       <c r="AJ15" s="51"/>
       <c r="AK15" s="52"/>
-      <c r="AL15" s="140" t="s">
+      <c r="AL15" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="AM15" s="140"/>
-      <c r="AN15" s="140"/>
-      <c r="AO15" s="140"/>
-      <c r="AP15" s="144"/>
-      <c r="AQ15" s="144"/>
-      <c r="AR15" s="144"/>
-      <c r="AS15" s="144"/>
-      <c r="AT15" s="144"/>
-      <c r="AU15" s="144"/>
-      <c r="AV15" s="144"/>
-    </row>
-    <row r="16" spans="2:48">
+      <c r="AM15" s="143"/>
+      <c r="AN15" s="143"/>
+      <c r="AO15" s="143"/>
+      <c r="AP15" s="147"/>
+      <c r="AQ15" s="147"/>
+      <c r="AR15" s="147"/>
+      <c r="AS15" s="147"/>
+      <c r="AT15" s="147"/>
+      <c r="AU15" s="147"/>
+      <c r="AV15" s="147"/>
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B16" s="49">
         <v>6</v>
       </c>
@@ -16588,27 +16656,27 @@
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="52"/>
-      <c r="K16" s="140" t="s">
+      <c r="K16" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="142"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="146"/>
       <c r="AD16" s="50"/>
       <c r="AE16" s="51" t="s">
         <v>94</v>
@@ -16619,21 +16687,21 @@
       <c r="AI16" s="51"/>
       <c r="AJ16" s="51"/>
       <c r="AK16" s="52"/>
-      <c r="AL16" s="140" t="s">
+      <c r="AL16" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="AM16" s="140"/>
-      <c r="AN16" s="140"/>
-      <c r="AO16" s="140"/>
-      <c r="AP16" s="144"/>
-      <c r="AQ16" s="144"/>
-      <c r="AR16" s="144"/>
-      <c r="AS16" s="144"/>
-      <c r="AT16" s="144"/>
-      <c r="AU16" s="144"/>
-      <c r="AV16" s="144"/>
-    </row>
-    <row r="17" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AM16" s="143"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="143"/>
+      <c r="AP16" s="147"/>
+      <c r="AQ16" s="147"/>
+      <c r="AR16" s="147"/>
+      <c r="AS16" s="147"/>
+      <c r="AT16" s="147"/>
+      <c r="AU16" s="147"/>
+      <c r="AV16" s="147"/>
+    </row>
+    <row r="17" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B17" s="49">
         <v>7</v>
       </c>
@@ -16647,27 +16715,27 @@
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
       <c r="J17" s="52"/>
-      <c r="K17" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="142"/>
-      <c r="V17" s="142"/>
-      <c r="W17" s="142"/>
-      <c r="X17" s="142"/>
-      <c r="Y17" s="142"/>
-      <c r="Z17" s="142"/>
-      <c r="AA17" s="142"/>
-      <c r="AB17" s="142"/>
-      <c r="AC17" s="143"/>
+      <c r="K17" s="176" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="146"/>
       <c r="AD17" s="50"/>
       <c r="AE17" s="51" t="s">
         <v>115</v>
@@ -16678,21 +16746,21 @@
       <c r="AI17" s="51"/>
       <c r="AJ17" s="51"/>
       <c r="AK17" s="52"/>
-      <c r="AL17" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM17" s="140"/>
-      <c r="AN17" s="140"/>
-      <c r="AO17" s="140"/>
-      <c r="AP17" s="144"/>
-      <c r="AQ17" s="144"/>
-      <c r="AR17" s="144"/>
-      <c r="AS17" s="144"/>
-      <c r="AT17" s="144"/>
-      <c r="AU17" s="144"/>
-      <c r="AV17" s="144"/>
-    </row>
-    <row r="18" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AL17" s="176" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM17" s="176"/>
+      <c r="AN17" s="176"/>
+      <c r="AO17" s="176"/>
+      <c r="AP17" s="147"/>
+      <c r="AQ17" s="147"/>
+      <c r="AR17" s="147"/>
+      <c r="AS17" s="147"/>
+      <c r="AT17" s="147"/>
+      <c r="AU17" s="147"/>
+      <c r="AV17" s="147"/>
+    </row>
+    <row r="18" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B18" s="49">
         <v>8</v>
       </c>
@@ -16706,27 +16774,27 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="140" t="s">
+      <c r="K18" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="142"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="142"/>
-      <c r="W18" s="142"/>
-      <c r="X18" s="142"/>
-      <c r="Y18" s="142"/>
-      <c r="Z18" s="142"/>
-      <c r="AA18" s="142"/>
-      <c r="AB18" s="142"/>
-      <c r="AC18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="146"/>
       <c r="AD18" s="50"/>
       <c r="AE18" s="51" t="s">
         <v>28</v>
@@ -16737,27 +16805,27 @@
       <c r="AI18" s="51"/>
       <c r="AJ18" s="51"/>
       <c r="AK18" s="52"/>
-      <c r="AL18" s="140" t="s">
+      <c r="AL18" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="AM18" s="140"/>
-      <c r="AN18" s="140"/>
-      <c r="AO18" s="140"/>
-      <c r="AP18" s="144"/>
-      <c r="AQ18" s="144"/>
-      <c r="AR18" s="144"/>
-      <c r="AS18" s="144"/>
-      <c r="AT18" s="144"/>
-      <c r="AU18" s="144"/>
-      <c r="AV18" s="144"/>
-    </row>
-    <row r="19" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AM18" s="143"/>
+      <c r="AN18" s="143"/>
+      <c r="AO18" s="143"/>
+      <c r="AP18" s="147"/>
+      <c r="AQ18" s="147"/>
+      <c r="AR18" s="147"/>
+      <c r="AS18" s="147"/>
+      <c r="AT18" s="147"/>
+      <c r="AU18" s="147"/>
+      <c r="AV18" s="147"/>
+    </row>
+    <row r="19" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B19" s="49">
         <v>9</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -16765,30 +16833,30 @@
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
       <c r="J19" s="52"/>
-      <c r="K19" s="140" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="142"/>
-      <c r="W19" s="142"/>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="142"/>
-      <c r="AA19" s="142"/>
-      <c r="AB19" s="142"/>
-      <c r="AC19" s="143"/>
+      <c r="K19" s="143" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="146"/>
       <c r="AD19" s="50"/>
       <c r="AE19" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" s="51"/>
       <c r="AG19" s="51"/>
@@ -16796,26 +16864,26 @@
       <c r="AI19" s="51"/>
       <c r="AJ19" s="51"/>
       <c r="AK19" s="52"/>
-      <c r="AL19" s="140" t="s">
+      <c r="AL19" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="AM19" s="140"/>
-      <c r="AN19" s="140"/>
-      <c r="AO19" s="140"/>
-      <c r="AP19" s="144"/>
-      <c r="AQ19" s="144"/>
-      <c r="AR19" s="144"/>
-      <c r="AS19" s="144"/>
-      <c r="AT19" s="144"/>
-      <c r="AU19" s="144"/>
-      <c r="AV19" s="144"/>
-    </row>
-    <row r="20" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AM19" s="143"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="147"/>
+      <c r="AQ19" s="147"/>
+      <c r="AR19" s="147"/>
+      <c r="AS19" s="147"/>
+      <c r="AT19" s="147"/>
+      <c r="AU19" s="147"/>
+      <c r="AV19" s="147"/>
+    </row>
+    <row r="20" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B20" s="49">
         <v>10</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
@@ -16824,25 +16892,25 @@
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="145"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="145"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="146"/>
       <c r="AD20" s="50"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -16851,25 +16919,25 @@
       <c r="AI20" s="51"/>
       <c r="AJ20" s="51"/>
       <c r="AK20" s="52"/>
-      <c r="AL20" s="140"/>
-      <c r="AM20" s="140"/>
-      <c r="AN20" s="140"/>
-      <c r="AO20" s="140"/>
-      <c r="AP20" s="144"/>
-      <c r="AQ20" s="144"/>
-      <c r="AR20" s="144"/>
-      <c r="AS20" s="144"/>
-      <c r="AT20" s="144"/>
-      <c r="AU20" s="144"/>
-      <c r="AV20" s="144"/>
-    </row>
-    <row r="21" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AL20" s="143"/>
+      <c r="AM20" s="143"/>
+      <c r="AN20" s="143"/>
+      <c r="AO20" s="143"/>
+      <c r="AP20" s="147"/>
+      <c r="AQ20" s="147"/>
+      <c r="AR20" s="147"/>
+      <c r="AS20" s="147"/>
+      <c r="AT20" s="147"/>
+      <c r="AU20" s="147"/>
+      <c r="AV20" s="147"/>
+    </row>
+    <row r="21" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B21" s="49">
         <v>11</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -16877,25 +16945,25 @@
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
       <c r="J21" s="52"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="142"/>
-      <c r="W21" s="142"/>
-      <c r="X21" s="142"/>
-      <c r="Y21" s="142"/>
-      <c r="Z21" s="142"/>
-      <c r="AA21" s="142"/>
-      <c r="AB21" s="142"/>
-      <c r="AC21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="146"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="51"/>
       <c r="AF21" s="51"/>
@@ -16904,51 +16972,51 @@
       <c r="AI21" s="51"/>
       <c r="AJ21" s="51"/>
       <c r="AK21" s="52"/>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="140"/>
-      <c r="AN21" s="140"/>
-      <c r="AO21" s="140"/>
-      <c r="AP21" s="144"/>
-      <c r="AQ21" s="144"/>
-      <c r="AR21" s="144"/>
-      <c r="AS21" s="144"/>
-      <c r="AT21" s="144"/>
-      <c r="AU21" s="144"/>
-      <c r="AV21" s="144"/>
-    </row>
-    <row r="22" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AL21" s="143"/>
+      <c r="AM21" s="143"/>
+      <c r="AN21" s="143"/>
+      <c r="AO21" s="143"/>
+      <c r="AP21" s="147"/>
+      <c r="AQ21" s="147"/>
+      <c r="AR21" s="147"/>
+      <c r="AS21" s="147"/>
+      <c r="AT21" s="147"/>
+      <c r="AU21" s="147"/>
+      <c r="AV21" s="147"/>
+    </row>
+    <row r="22" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B22" s="49">
         <v>12</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
       <c r="J22" s="52"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="142"/>
-      <c r="W22" s="142"/>
-      <c r="X22" s="142"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="142"/>
-      <c r="AB22" s="142"/>
-      <c r="AC22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="146"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="51"/>
       <c r="AF22" s="51"/>
@@ -16957,19 +17025,19 @@
       <c r="AI22" s="51"/>
       <c r="AJ22" s="51"/>
       <c r="AK22" s="52"/>
-      <c r="AL22" s="140"/>
-      <c r="AM22" s="140"/>
-      <c r="AN22" s="140"/>
-      <c r="AO22" s="140"/>
-      <c r="AP22" s="144"/>
-      <c r="AQ22" s="144"/>
-      <c r="AR22" s="144"/>
-      <c r="AS22" s="144"/>
-      <c r="AT22" s="144"/>
-      <c r="AU22" s="144"/>
-      <c r="AV22" s="144"/>
-    </row>
-    <row r="23" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AL22" s="143"/>
+      <c r="AM22" s="143"/>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="143"/>
+      <c r="AP22" s="147"/>
+      <c r="AQ22" s="147"/>
+      <c r="AR22" s="147"/>
+      <c r="AS22" s="147"/>
+      <c r="AT22" s="147"/>
+      <c r="AU22" s="147"/>
+      <c r="AV22" s="147"/>
+    </row>
+    <row r="23" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B23" s="49">
         <v>13</v>
       </c>
@@ -16977,36 +17045,36 @@
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
       <c r="J23" s="52"/>
-      <c r="K23" s="140" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="142"/>
-      <c r="W23" s="142"/>
-      <c r="X23" s="142"/>
-      <c r="Y23" s="142"/>
-      <c r="Z23" s="142"/>
-      <c r="AA23" s="142"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="143"/>
+      <c r="K23" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="146"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF23" s="51"/>
       <c r="AG23" s="51"/>
@@ -17014,21 +17082,21 @@
       <c r="AI23" s="51"/>
       <c r="AJ23" s="51"/>
       <c r="AK23" s="52"/>
-      <c r="AL23" s="140" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM23" s="140"/>
-      <c r="AN23" s="140"/>
-      <c r="AO23" s="140"/>
-      <c r="AP23" s="144"/>
-      <c r="AQ23" s="144"/>
-      <c r="AR23" s="144"/>
-      <c r="AS23" s="144"/>
-      <c r="AT23" s="144"/>
-      <c r="AU23" s="144"/>
-      <c r="AV23" s="144"/>
-    </row>
-    <row r="24" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AL23" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM23" s="143"/>
+      <c r="AN23" s="143"/>
+      <c r="AO23" s="143"/>
+      <c r="AP23" s="147"/>
+      <c r="AQ23" s="147"/>
+      <c r="AR23" s="147"/>
+      <c r="AS23" s="147"/>
+      <c r="AT23" s="147"/>
+      <c r="AU23" s="147"/>
+      <c r="AV23" s="147"/>
+    </row>
+    <row r="24" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B24" s="49">
         <v>14</v>
       </c>
@@ -17040,28 +17108,28 @@
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
       <c r="J24" s="52"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="142"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="142"/>
-      <c r="W24" s="142"/>
-      <c r="X24" s="142"/>
-      <c r="Y24" s="142"/>
-      <c r="Z24" s="142"/>
-      <c r="AA24" s="142"/>
-      <c r="AB24" s="142"/>
-      <c r="AC24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
+      <c r="V24" s="145"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="146"/>
       <c r="AD24" s="50"/>
       <c r="AE24" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF24" s="51"/>
       <c r="AG24" s="51"/>
@@ -17069,150 +17137,150 @@
       <c r="AI24" s="51"/>
       <c r="AJ24" s="51"/>
       <c r="AK24" s="52"/>
-      <c r="AL24" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM24" s="140"/>
-      <c r="AN24" s="140"/>
-      <c r="AO24" s="140"/>
-      <c r="AP24" s="144"/>
-      <c r="AQ24" s="144"/>
-      <c r="AR24" s="144"/>
-      <c r="AS24" s="144"/>
-      <c r="AT24" s="144"/>
-      <c r="AU24" s="144"/>
-      <c r="AV24" s="144"/>
-    </row>
-    <row r="25" spans="2:48" s="40" customFormat="1" ht="12">
+      <c r="AL24" s="143" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM24" s="143"/>
+      <c r="AN24" s="143"/>
+      <c r="AO24" s="143"/>
+      <c r="AP24" s="147"/>
+      <c r="AQ24" s="147"/>
+      <c r="AR24" s="147"/>
+      <c r="AS24" s="147"/>
+      <c r="AT24" s="147"/>
+      <c r="AU24" s="147"/>
+      <c r="AV24" s="147"/>
+    </row>
+    <row r="25" spans="2:48" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C25" s="44"/>
     </row>
-    <row r="26" spans="2:48" ht="14.25">
+    <row r="26" spans="2:48" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B26" s="45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="2:48">
-      <c r="B27" s="151" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B27" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="157" t="s">
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="165"/>
+      <c r="Y27" s="165"/>
+      <c r="Z27" s="165"/>
+      <c r="AA27" s="165"/>
+      <c r="AB27" s="165"/>
+      <c r="AC27" s="166"/>
+      <c r="AD27" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="158"/>
-      <c r="AN27" s="158"/>
-      <c r="AO27" s="158"/>
-      <c r="AP27" s="158"/>
-      <c r="AQ27" s="158"/>
-      <c r="AR27" s="158"/>
-      <c r="AS27" s="158"/>
-      <c r="AT27" s="158"/>
-      <c r="AU27" s="158"/>
-      <c r="AV27" s="159"/>
-    </row>
-    <row r="28" spans="2:48">
+      <c r="AE27" s="167"/>
+      <c r="AF27" s="167"/>
+      <c r="AG27" s="167"/>
+      <c r="AH27" s="167"/>
+      <c r="AI27" s="167"/>
+      <c r="AJ27" s="167"/>
+      <c r="AK27" s="167"/>
+      <c r="AL27" s="167"/>
+      <c r="AM27" s="167"/>
+      <c r="AN27" s="167"/>
+      <c r="AO27" s="167"/>
+      <c r="AP27" s="167"/>
+      <c r="AQ27" s="167"/>
+      <c r="AR27" s="167"/>
+      <c r="AS27" s="167"/>
+      <c r="AT27" s="167"/>
+      <c r="AU27" s="167"/>
+      <c r="AV27" s="168"/>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B28" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151" t="s">
+      <c r="C28" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="160" t="s">
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="163" t="s">
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="164"/>
-      <c r="R28" s="164"/>
-      <c r="S28" s="164"/>
-      <c r="T28" s="164"/>
-      <c r="U28" s="164"/>
-      <c r="V28" s="164"/>
-      <c r="W28" s="164"/>
-      <c r="X28" s="164"/>
-      <c r="Y28" s="164"/>
-      <c r="Z28" s="164"/>
-      <c r="AA28" s="164"/>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="151" t="s">
+      <c r="P28" s="160"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="160"/>
+      <c r="T28" s="160"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="171"/>
+      <c r="AD28" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="AE28" s="152"/>
-      <c r="AF28" s="152"/>
-      <c r="AG28" s="152"/>
-      <c r="AH28" s="152"/>
-      <c r="AI28" s="152"/>
-      <c r="AJ28" s="152"/>
-      <c r="AK28" s="153"/>
-      <c r="AL28" s="160" t="s">
+      <c r="AE28" s="163"/>
+      <c r="AF28" s="163"/>
+      <c r="AG28" s="163"/>
+      <c r="AH28" s="163"/>
+      <c r="AI28" s="163"/>
+      <c r="AJ28" s="163"/>
+      <c r="AK28" s="164"/>
+      <c r="AL28" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="AM28" s="161"/>
-      <c r="AN28" s="161"/>
-      <c r="AO28" s="162"/>
-      <c r="AP28" s="151" t="s">
+      <c r="AM28" s="169"/>
+      <c r="AN28" s="169"/>
+      <c r="AO28" s="170"/>
+      <c r="AP28" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="AQ28" s="152"/>
-      <c r="AR28" s="152"/>
-      <c r="AS28" s="152"/>
-      <c r="AT28" s="152"/>
-      <c r="AU28" s="152"/>
-      <c r="AV28" s="153"/>
-    </row>
-    <row r="29" spans="2:48">
+      <c r="AQ28" s="163"/>
+      <c r="AR28" s="163"/>
+      <c r="AS28" s="163"/>
+      <c r="AT28" s="163"/>
+      <c r="AU28" s="163"/>
+      <c r="AV28" s="164"/>
+    </row>
+    <row r="29" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B29" s="49">
         <v>1</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -17221,27 +17289,27 @@
       <c r="H29" s="51"/>
       <c r="I29" s="51"/>
       <c r="J29" s="52"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="142"/>
-      <c r="S29" s="142"/>
-      <c r="T29" s="142"/>
-      <c r="U29" s="142"/>
-      <c r="V29" s="142"/>
-      <c r="W29" s="142"/>
-      <c r="X29" s="142"/>
-      <c r="Y29" s="142"/>
-      <c r="Z29" s="142"/>
-      <c r="AA29" s="142"/>
-      <c r="AB29" s="142"/>
-      <c r="AC29" s="143"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="146"/>
       <c r="AD29" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE29" s="51"/>
       <c r="AF29" s="51"/>
@@ -17250,25 +17318,25 @@
       <c r="AI29" s="51"/>
       <c r="AJ29" s="51"/>
       <c r="AK29" s="52"/>
-      <c r="AL29" s="148"/>
-      <c r="AM29" s="149"/>
-      <c r="AN29" s="149"/>
-      <c r="AO29" s="150"/>
-      <c r="AP29" s="141"/>
-      <c r="AQ29" s="142"/>
-      <c r="AR29" s="142"/>
-      <c r="AS29" s="142"/>
-      <c r="AT29" s="142"/>
-      <c r="AU29" s="142"/>
-      <c r="AV29" s="143"/>
-    </row>
-    <row r="30" spans="2:48">
+      <c r="AL29" s="173"/>
+      <c r="AM29" s="174"/>
+      <c r="AN29" s="174"/>
+      <c r="AO29" s="175"/>
+      <c r="AP29" s="144"/>
+      <c r="AQ29" s="145"/>
+      <c r="AR29" s="145"/>
+      <c r="AS29" s="145"/>
+      <c r="AT29" s="145"/>
+      <c r="AU29" s="145"/>
+      <c r="AV29" s="146"/>
+    </row>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B30" s="49">
         <v>2</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="51"/>
       <c r="F30" s="51"/>
@@ -17276,30 +17344,30 @@
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="142"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="142"/>
-      <c r="W30" s="142"/>
-      <c r="X30" s="142"/>
-      <c r="Y30" s="142"/>
-      <c r="Z30" s="142"/>
-      <c r="AA30" s="142"/>
-      <c r="AB30" s="142"/>
-      <c r="AC30" s="143"/>
+      <c r="K30" s="172" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="146"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF30" s="51"/>
       <c r="AG30" s="51"/>
@@ -17307,97 +17375,31 @@
       <c r="AI30" s="51"/>
       <c r="AJ30" s="51"/>
       <c r="AK30" s="52"/>
-      <c r="AL30" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM30" s="146"/>
-      <c r="AN30" s="146"/>
-      <c r="AO30" s="147"/>
-      <c r="AP30" s="141"/>
-      <c r="AQ30" s="142"/>
-      <c r="AR30" s="142"/>
-      <c r="AS30" s="142"/>
-      <c r="AT30" s="142"/>
-      <c r="AU30" s="142"/>
-      <c r="AV30" s="143"/>
-    </row>
-    <row r="32" spans="2:48">
+      <c r="AL30" s="172" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="150"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="144"/>
+      <c r="AQ30" s="145"/>
+      <c r="AR30" s="145"/>
+      <c r="AS30" s="145"/>
+      <c r="AT30" s="145"/>
+      <c r="AU30" s="145"/>
+      <c r="AV30" s="146"/>
+    </row>
+    <row r="32" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B32" s="55"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="55"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:AC23"/>
-    <mergeCell ref="AL23:AO23"/>
-    <mergeCell ref="AP23:AV23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:AC24"/>
-    <mergeCell ref="AL24:AO24"/>
-    <mergeCell ref="AP24:AV24"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:AC21"/>
-    <mergeCell ref="AL21:AO21"/>
-    <mergeCell ref="AP21:AV21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:AC22"/>
-    <mergeCell ref="AL22:AO22"/>
-    <mergeCell ref="AP22:AV22"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:AC18"/>
-    <mergeCell ref="AL18:AO18"/>
-    <mergeCell ref="AP18:AV18"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:AC20"/>
-    <mergeCell ref="AL20:AO20"/>
-    <mergeCell ref="AP20:AV20"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:AC13"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AV13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:AC14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AV14"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="O11:AC11"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AV11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="O12:AC12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AV12"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:AC9"/>
-    <mergeCell ref="AD9:AV9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:AC10"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AV10"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="O27:AC27"/>
-    <mergeCell ref="AD27:AV27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:AC28"/>
-    <mergeCell ref="AD28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AV28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:AC29"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AP29:AV29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:AC30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="AP30:AV30"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="O15:AC15"/>
     <mergeCell ref="AL15:AO15"/>
@@ -17414,6 +17416,72 @@
     <mergeCell ref="O17:AC17"/>
     <mergeCell ref="AL17:AO17"/>
     <mergeCell ref="AP17:AV17"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:AC29"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AP29:AV29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="O30:AC30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="AP30:AV30"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="O27:AC27"/>
+    <mergeCell ref="AD27:AV27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:AC28"/>
+    <mergeCell ref="AD28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AV28"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:AC9"/>
+    <mergeCell ref="AD9:AV9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:AC10"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AV10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:AC11"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AV11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O12:AC12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AV12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:AC13"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AV13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:AC14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AV14"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:AC18"/>
+    <mergeCell ref="AL18:AO18"/>
+    <mergeCell ref="AP18:AV18"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:AC20"/>
+    <mergeCell ref="AL20:AO20"/>
+    <mergeCell ref="AP20:AV20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:AC21"/>
+    <mergeCell ref="AL21:AO21"/>
+    <mergeCell ref="AP21:AV21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:AC22"/>
+    <mergeCell ref="AL22:AO22"/>
+    <mergeCell ref="AP22:AV22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:AC23"/>
+    <mergeCell ref="AL23:AO23"/>
+    <mergeCell ref="AP23:AV23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:AC24"/>
+    <mergeCell ref="AL24:AO24"/>
+    <mergeCell ref="AP24:AV24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17435,13 +17503,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
     <col min="2" max="16384" width="3" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1">
+    <row r="2" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -17488,20 +17556,20 @@
       <c r="AS2" s="41"/>
       <c r="AT2" s="41"/>
     </row>
-    <row r="3" spans="2:46" ht="14.25" customHeight="1">
+    <row r="3" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="2:46" s="29" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="2:46" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="79"/>
       <c r="C4" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R4" s="80"/>
     </row>
-    <row r="6" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1">
+    <row r="6" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -17548,17 +17616,17 @@
       <c r="AS6" s="41"/>
       <c r="AT6" s="41"/>
     </row>
-    <row r="7" spans="2:46" ht="14.25" customHeight="1">
+    <row r="7" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:46">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.15">
       <c r="C9" s="60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1">
+    <row r="11" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -17605,12 +17673,12 @@
       <c r="AS11" s="41"/>
       <c r="AT11" s="41"/>
     </row>
-    <row r="12" spans="2:46" ht="14.25" customHeight="1">
+    <row r="12" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="2:46">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.15">
       <c r="C14" s="60" t="s">
         <v>15</v>
       </c>
@@ -17645,7 +17713,7 @@
       <c r="AF14" s="61"/>
       <c r="AG14" s="61"/>
     </row>
-    <row r="16" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1">
+    <row r="16" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -17692,250 +17760,255 @@
       <c r="AS16" s="41"/>
       <c r="AT16" s="41"/>
     </row>
-    <row r="17" spans="2:46" ht="14.25" customHeight="1">
+    <row r="17" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:46">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.15">
       <c r="C19" s="44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:46" ht="12" customHeight="1"/>
-    <row r="21" spans="2:46">
-      <c r="D21" s="179" t="s">
+    <row r="20" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="D21" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179" t="s">
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="173" t="s">
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
-      <c r="Y21" s="174"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="174"/>
-      <c r="AC21" s="174"/>
-      <c r="AD21" s="174"/>
-      <c r="AE21" s="174"/>
-      <c r="AF21" s="174"/>
-      <c r="AG21" s="174"/>
-      <c r="AH21" s="174"/>
-      <c r="AI21" s="174"/>
-      <c r="AJ21" s="174"/>
-      <c r="AK21" s="174"/>
-      <c r="AL21" s="174"/>
-      <c r="AM21" s="174"/>
-      <c r="AN21" s="174"/>
-      <c r="AO21" s="174"/>
-      <c r="AP21" s="174"/>
-      <c r="AQ21" s="174"/>
-      <c r="AR21" s="174"/>
-      <c r="AS21" s="174"/>
-      <c r="AT21" s="175"/>
-    </row>
-    <row r="22" spans="2:46" ht="28.5" customHeight="1">
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
-      <c r="U22" s="177"/>
-      <c r="V22" s="177"/>
-      <c r="W22" s="177"/>
-      <c r="X22" s="177"/>
-      <c r="Y22" s="177"/>
-      <c r="Z22" s="177"/>
-      <c r="AA22" s="177"/>
-      <c r="AB22" s="177"/>
-      <c r="AC22" s="177"/>
-      <c r="AD22" s="177"/>
-      <c r="AE22" s="177"/>
-      <c r="AF22" s="177"/>
-      <c r="AG22" s="177"/>
-      <c r="AH22" s="177"/>
-      <c r="AI22" s="177"/>
-      <c r="AJ22" s="177"/>
-      <c r="AK22" s="177"/>
-      <c r="AL22" s="177"/>
-      <c r="AM22" s="177"/>
-      <c r="AN22" s="177"/>
-      <c r="AO22" s="177"/>
-      <c r="AP22" s="177"/>
-      <c r="AQ22" s="177"/>
-      <c r="AR22" s="177"/>
-      <c r="AS22" s="177"/>
-      <c r="AT22" s="178"/>
-    </row>
-    <row r="23" spans="2:46" ht="28.5" customHeight="1">
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="177"/>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="177"/>
-      <c r="S23" s="177"/>
-      <c r="T23" s="177"/>
-      <c r="U23" s="177"/>
-      <c r="V23" s="177"/>
-      <c r="W23" s="177"/>
-      <c r="X23" s="177"/>
-      <c r="Y23" s="177"/>
-      <c r="Z23" s="177"/>
-      <c r="AA23" s="177"/>
-      <c r="AB23" s="177"/>
-      <c r="AC23" s="177"/>
-      <c r="AD23" s="177"/>
-      <c r="AE23" s="177"/>
-      <c r="AF23" s="177"/>
-      <c r="AG23" s="177"/>
-      <c r="AH23" s="177"/>
-      <c r="AI23" s="177"/>
-      <c r="AJ23" s="177"/>
-      <c r="AK23" s="177"/>
-      <c r="AL23" s="177"/>
-      <c r="AM23" s="177"/>
-      <c r="AN23" s="177"/>
-      <c r="AO23" s="177"/>
-      <c r="AP23" s="177"/>
-      <c r="AQ23" s="177"/>
-      <c r="AR23" s="177"/>
-      <c r="AS23" s="177"/>
-      <c r="AT23" s="178"/>
-    </row>
-    <row r="24" spans="2:46" ht="26.25" customHeight="1">
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="177"/>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="177"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="177"/>
-      <c r="V24" s="177"/>
-      <c r="W24" s="177"/>
-      <c r="X24" s="177"/>
-      <c r="Y24" s="177"/>
-      <c r="Z24" s="177"/>
-      <c r="AA24" s="177"/>
-      <c r="AB24" s="177"/>
-      <c r="AC24" s="177"/>
-      <c r="AD24" s="177"/>
-      <c r="AE24" s="177"/>
-      <c r="AF24" s="177"/>
-      <c r="AG24" s="177"/>
-      <c r="AH24" s="177"/>
-      <c r="AI24" s="177"/>
-      <c r="AJ24" s="177"/>
-      <c r="AK24" s="177"/>
-      <c r="AL24" s="177"/>
-      <c r="AM24" s="177"/>
-      <c r="AN24" s="177"/>
-      <c r="AO24" s="177"/>
-      <c r="AP24" s="177"/>
-      <c r="AQ24" s="177"/>
-      <c r="AR24" s="177"/>
-      <c r="AS24" s="177"/>
-      <c r="AT24" s="178"/>
-    </row>
-    <row r="25" spans="2:46" ht="26.25" customHeight="1">
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="176"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="177"/>
-      <c r="V25" s="177"/>
-      <c r="W25" s="177"/>
-      <c r="X25" s="177"/>
-      <c r="Y25" s="177"/>
-      <c r="Z25" s="177"/>
-      <c r="AA25" s="177"/>
-      <c r="AB25" s="177"/>
-      <c r="AC25" s="177"/>
-      <c r="AD25" s="177"/>
-      <c r="AE25" s="177"/>
-      <c r="AF25" s="177"/>
-      <c r="AG25" s="177"/>
-      <c r="AH25" s="177"/>
-      <c r="AI25" s="177"/>
-      <c r="AJ25" s="177"/>
-      <c r="AK25" s="177"/>
-      <c r="AL25" s="177"/>
-      <c r="AM25" s="177"/>
-      <c r="AN25" s="177"/>
-      <c r="AO25" s="177"/>
-      <c r="AP25" s="177"/>
-      <c r="AQ25" s="177"/>
-      <c r="AR25" s="177"/>
-      <c r="AS25" s="177"/>
-      <c r="AT25" s="178"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="180"/>
+      <c r="S21" s="180"/>
+      <c r="T21" s="180"/>
+      <c r="U21" s="180"/>
+      <c r="V21" s="180"/>
+      <c r="W21" s="180"/>
+      <c r="X21" s="180"/>
+      <c r="Y21" s="180"/>
+      <c r="Z21" s="180"/>
+      <c r="AA21" s="180"/>
+      <c r="AB21" s="180"/>
+      <c r="AC21" s="180"/>
+      <c r="AD21" s="180"/>
+      <c r="AE21" s="180"/>
+      <c r="AF21" s="180"/>
+      <c r="AG21" s="180"/>
+      <c r="AH21" s="180"/>
+      <c r="AI21" s="180"/>
+      <c r="AJ21" s="180"/>
+      <c r="AK21" s="180"/>
+      <c r="AL21" s="180"/>
+      <c r="AM21" s="180"/>
+      <c r="AN21" s="180"/>
+      <c r="AO21" s="180"/>
+      <c r="AP21" s="180"/>
+      <c r="AQ21" s="180"/>
+      <c r="AR21" s="180"/>
+      <c r="AS21" s="180"/>
+      <c r="AT21" s="181"/>
+    </row>
+    <row r="22" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="183"/>
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="183"/>
+      <c r="AF22" s="183"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="183"/>
+      <c r="AI22" s="183"/>
+      <c r="AJ22" s="183"/>
+      <c r="AK22" s="183"/>
+      <c r="AL22" s="183"/>
+      <c r="AM22" s="183"/>
+      <c r="AN22" s="183"/>
+      <c r="AO22" s="183"/>
+      <c r="AP22" s="183"/>
+      <c r="AQ22" s="183"/>
+      <c r="AR22" s="183"/>
+      <c r="AS22" s="183"/>
+      <c r="AT22" s="184"/>
+    </row>
+    <row r="23" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="183"/>
+      <c r="AF23" s="183"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="183"/>
+      <c r="AI23" s="183"/>
+      <c r="AJ23" s="183"/>
+      <c r="AK23" s="183"/>
+      <c r="AL23" s="183"/>
+      <c r="AM23" s="183"/>
+      <c r="AN23" s="183"/>
+      <c r="AO23" s="183"/>
+      <c r="AP23" s="183"/>
+      <c r="AQ23" s="183"/>
+      <c r="AR23" s="183"/>
+      <c r="AS23" s="183"/>
+      <c r="AT23" s="184"/>
+    </row>
+    <row r="24" spans="2:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="183"/>
+      <c r="AF24" s="183"/>
+      <c r="AG24" s="183"/>
+      <c r="AH24" s="183"/>
+      <c r="AI24" s="183"/>
+      <c r="AJ24" s="183"/>
+      <c r="AK24" s="183"/>
+      <c r="AL24" s="183"/>
+      <c r="AM24" s="183"/>
+      <c r="AN24" s="183"/>
+      <c r="AO24" s="183"/>
+      <c r="AP24" s="183"/>
+      <c r="AQ24" s="183"/>
+      <c r="AR24" s="183"/>
+      <c r="AS24" s="183"/>
+      <c r="AT24" s="184"/>
+    </row>
+    <row r="25" spans="2:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="183"/>
+      <c r="AE25" s="183"/>
+      <c r="AF25" s="183"/>
+      <c r="AG25" s="183"/>
+      <c r="AH25" s="183"/>
+      <c r="AI25" s="183"/>
+      <c r="AJ25" s="183"/>
+      <c r="AK25" s="183"/>
+      <c r="AL25" s="183"/>
+      <c r="AM25" s="183"/>
+      <c r="AN25" s="183"/>
+      <c r="AO25" s="183"/>
+      <c r="AP25" s="183"/>
+      <c r="AQ25" s="183"/>
+      <c r="AR25" s="183"/>
+      <c r="AS25" s="183"/>
+      <c r="AT25" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O21:AT21"/>
+    <mergeCell ref="O22:AT22"/>
+    <mergeCell ref="O23:AT23"/>
+    <mergeCell ref="O24:AT24"/>
+    <mergeCell ref="O25:AT25"/>
     <mergeCell ref="D21:K21"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="D22:K22"/>
@@ -17946,11 +18019,6 @@
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="D24:K24"/>
     <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O21:AT21"/>
-    <mergeCell ref="O22:AT22"/>
-    <mergeCell ref="O23:AT23"/>
-    <mergeCell ref="O24:AT24"/>
-    <mergeCell ref="O25:AT25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17971,13 +18039,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="48" customWidth="1"/>
     <col min="2" max="16384" width="3" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1">
+    <row r="2" spans="2:46" s="42" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -18024,532 +18092,520 @@
       <c r="AS2" s="41"/>
       <c r="AT2" s="41"/>
     </row>
-    <row r="3" spans="2:46" s="40" customFormat="1" ht="14.25">
+    <row r="3" spans="2:46" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:46" s="40" customFormat="1" ht="12"/>
-    <row r="5" spans="2:46" s="40" customFormat="1" ht="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:46" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C5" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:46" s="40" customFormat="1" ht="12"/>
-    <row r="7" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D7" s="179" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="173" t="s">
+    <row r="6" spans="2:46" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="177" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="174"/>
-      <c r="U7" s="174"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="174"/>
-      <c r="AJ7" s="174"/>
-      <c r="AK7" s="174"/>
-      <c r="AL7" s="174"/>
-      <c r="AM7" s="174"/>
-      <c r="AN7" s="174"/>
-      <c r="AO7" s="174"/>
-      <c r="AP7" s="174"/>
-      <c r="AQ7" s="174"/>
-      <c r="AR7" s="174"/>
-      <c r="AS7" s="174"/>
-      <c r="AT7" s="175"/>
-    </row>
-    <row r="8" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D8" s="181"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="185"/>
-      <c r="Z8" s="185"/>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185"/>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="185"/>
-      <c r="AG8" s="185"/>
-      <c r="AH8" s="185"/>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="185"/>
-      <c r="AK8" s="185"/>
-      <c r="AL8" s="185"/>
-      <c r="AM8" s="185"/>
-      <c r="AN8" s="185"/>
-      <c r="AO8" s="185"/>
-      <c r="AP8" s="185"/>
-      <c r="AQ8" s="185"/>
-      <c r="AR8" s="185"/>
-      <c r="AS8" s="185"/>
-      <c r="AT8" s="186"/>
-    </row>
-    <row r="9" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D9" s="181"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="185"/>
-      <c r="AF9" s="185"/>
-      <c r="AG9" s="185"/>
-      <c r="AH9" s="185"/>
-      <c r="AI9" s="185"/>
-      <c r="AJ9" s="185"/>
-      <c r="AK9" s="185"/>
-      <c r="AL9" s="185"/>
-      <c r="AM9" s="185"/>
-      <c r="AN9" s="185"/>
-      <c r="AO9" s="185"/>
-      <c r="AP9" s="185"/>
-      <c r="AQ9" s="185"/>
-      <c r="AR9" s="185"/>
-      <c r="AS9" s="185"/>
-      <c r="AT9" s="186"/>
-    </row>
-    <row r="10" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D10" s="181"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="185"/>
-      <c r="AF10" s="185"/>
-      <c r="AG10" s="185"/>
-      <c r="AH10" s="185"/>
-      <c r="AI10" s="185"/>
-      <c r="AJ10" s="185"/>
-      <c r="AK10" s="185"/>
-      <c r="AL10" s="185"/>
-      <c r="AM10" s="185"/>
-      <c r="AN10" s="185"/>
-      <c r="AO10" s="185"/>
-      <c r="AP10" s="185"/>
-      <c r="AQ10" s="185"/>
-      <c r="AR10" s="185"/>
-      <c r="AS10" s="185"/>
-      <c r="AT10" s="186"/>
-    </row>
-    <row r="11" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D11" s="181"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="185"/>
-      <c r="O11" s="185"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
-      <c r="Y11" s="185"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="185"/>
-      <c r="AF11" s="185"/>
-      <c r="AG11" s="185"/>
-      <c r="AH11" s="185"/>
-      <c r="AI11" s="185"/>
-      <c r="AJ11" s="185"/>
-      <c r="AK11" s="185"/>
-      <c r="AL11" s="185"/>
-      <c r="AM11" s="185"/>
-      <c r="AN11" s="185"/>
-      <c r="AO11" s="185"/>
-      <c r="AP11" s="185"/>
-      <c r="AQ11" s="185"/>
-      <c r="AR11" s="185"/>
-      <c r="AS11" s="185"/>
-      <c r="AT11" s="186"/>
-    </row>
-    <row r="12" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D12" s="181"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="185"/>
-      <c r="L12" s="185"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="185"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="185"/>
-      <c r="AF12" s="185"/>
-      <c r="AG12" s="185"/>
-      <c r="AH12" s="185"/>
-      <c r="AI12" s="185"/>
-      <c r="AJ12" s="185"/>
-      <c r="AK12" s="185"/>
-      <c r="AL12" s="185"/>
-      <c r="AM12" s="185"/>
-      <c r="AN12" s="185"/>
-      <c r="AO12" s="185"/>
-      <c r="AP12" s="185"/>
-      <c r="AQ12" s="185"/>
-      <c r="AR12" s="185"/>
-      <c r="AS12" s="185"/>
-      <c r="AT12" s="186"/>
-    </row>
-    <row r="13" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D13" s="181"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="185"/>
-      <c r="AF13" s="185"/>
-      <c r="AG13" s="185"/>
-      <c r="AH13" s="185"/>
-      <c r="AI13" s="185"/>
-      <c r="AJ13" s="185"/>
-      <c r="AK13" s="185"/>
-      <c r="AL13" s="185"/>
-      <c r="AM13" s="185"/>
-      <c r="AN13" s="185"/>
-      <c r="AO13" s="185"/>
-      <c r="AP13" s="185"/>
-      <c r="AQ13" s="185"/>
-      <c r="AR13" s="185"/>
-      <c r="AS13" s="185"/>
-      <c r="AT13" s="186"/>
-    </row>
-    <row r="14" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D14" s="181"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="185"/>
-      <c r="L14" s="185"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="185"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="185"/>
-      <c r="AF14" s="185"/>
-      <c r="AG14" s="185"/>
-      <c r="AH14" s="185"/>
-      <c r="AI14" s="185"/>
-      <c r="AJ14" s="185"/>
-      <c r="AK14" s="185"/>
-      <c r="AL14" s="185"/>
-      <c r="AM14" s="185"/>
-      <c r="AN14" s="185"/>
-      <c r="AO14" s="185"/>
-      <c r="AP14" s="185"/>
-      <c r="AQ14" s="185"/>
-      <c r="AR14" s="185"/>
-      <c r="AS14" s="185"/>
-      <c r="AT14" s="186"/>
-    </row>
-    <row r="15" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D15" s="181"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="185"/>
-      <c r="AF15" s="185"/>
-      <c r="AG15" s="185"/>
-      <c r="AH15" s="185"/>
-      <c r="AI15" s="185"/>
-      <c r="AJ15" s="185"/>
-      <c r="AK15" s="185"/>
-      <c r="AL15" s="185"/>
-      <c r="AM15" s="185"/>
-      <c r="AN15" s="185"/>
-      <c r="AO15" s="185"/>
-      <c r="AP15" s="185"/>
-      <c r="AQ15" s="185"/>
-      <c r="AR15" s="185"/>
-      <c r="AS15" s="185"/>
-      <c r="AT15" s="186"/>
-    </row>
-    <row r="16" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D16" s="181"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="185"/>
-      <c r="AF16" s="185"/>
-      <c r="AG16" s="185"/>
-      <c r="AH16" s="185"/>
-      <c r="AI16" s="185"/>
-      <c r="AJ16" s="185"/>
-      <c r="AK16" s="185"/>
-      <c r="AL16" s="185"/>
-      <c r="AM16" s="185"/>
-      <c r="AN16" s="185"/>
-      <c r="AO16" s="185"/>
-      <c r="AP16" s="185"/>
-      <c r="AQ16" s="185"/>
-      <c r="AR16" s="185"/>
-      <c r="AS16" s="185"/>
-      <c r="AT16" s="186"/>
-    </row>
-    <row r="17" spans="4:46" s="44" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D17" s="181"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="185"/>
-      <c r="AF17" s="185"/>
-      <c r="AG17" s="185"/>
-      <c r="AH17" s="185"/>
-      <c r="AI17" s="185"/>
-      <c r="AJ17" s="185"/>
-      <c r="AK17" s="185"/>
-      <c r="AL17" s="185"/>
-      <c r="AM17" s="185"/>
-      <c r="AN17" s="185"/>
-      <c r="AO17" s="185"/>
-      <c r="AP17" s="185"/>
-      <c r="AQ17" s="185"/>
-      <c r="AR17" s="185"/>
-      <c r="AS17" s="185"/>
-      <c r="AT17" s="186"/>
-    </row>
-    <row r="18" spans="4:46" s="40" customFormat="1" ht="12"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="180"/>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="180"/>
+      <c r="AN7" s="180"/>
+      <c r="AO7" s="180"/>
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="180"/>
+      <c r="AS7" s="180"/>
+      <c r="AT7" s="181"/>
+    </row>
+    <row r="8" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="185"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="189"/>
+      <c r="R8" s="189"/>
+      <c r="S8" s="189"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="189"/>
+      <c r="X8" s="189"/>
+      <c r="Y8" s="189"/>
+      <c r="Z8" s="189"/>
+      <c r="AA8" s="189"/>
+      <c r="AB8" s="189"/>
+      <c r="AC8" s="189"/>
+      <c r="AD8" s="189"/>
+      <c r="AE8" s="189"/>
+      <c r="AF8" s="189"/>
+      <c r="AG8" s="189"/>
+      <c r="AH8" s="189"/>
+      <c r="AI8" s="189"/>
+      <c r="AJ8" s="189"/>
+      <c r="AK8" s="189"/>
+      <c r="AL8" s="189"/>
+      <c r="AM8" s="189"/>
+      <c r="AN8" s="189"/>
+      <c r="AO8" s="189"/>
+      <c r="AP8" s="189"/>
+      <c r="AQ8" s="189"/>
+      <c r="AR8" s="189"/>
+      <c r="AS8" s="189"/>
+      <c r="AT8" s="190"/>
+    </row>
+    <row r="9" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="185"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="189"/>
+      <c r="R9" s="189"/>
+      <c r="S9" s="189"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="189"/>
+      <c r="W9" s="189"/>
+      <c r="X9" s="189"/>
+      <c r="Y9" s="189"/>
+      <c r="Z9" s="189"/>
+      <c r="AA9" s="189"/>
+      <c r="AB9" s="189"/>
+      <c r="AC9" s="189"/>
+      <c r="AD9" s="189"/>
+      <c r="AE9" s="189"/>
+      <c r="AF9" s="189"/>
+      <c r="AG9" s="189"/>
+      <c r="AH9" s="189"/>
+      <c r="AI9" s="189"/>
+      <c r="AJ9" s="189"/>
+      <c r="AK9" s="189"/>
+      <c r="AL9" s="189"/>
+      <c r="AM9" s="189"/>
+      <c r="AN9" s="189"/>
+      <c r="AO9" s="189"/>
+      <c r="AP9" s="189"/>
+      <c r="AQ9" s="189"/>
+      <c r="AR9" s="189"/>
+      <c r="AS9" s="189"/>
+      <c r="AT9" s="190"/>
+    </row>
+    <row r="10" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="185"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="189"/>
+      <c r="T10" s="189"/>
+      <c r="U10" s="189"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="189"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="189"/>
+      <c r="AE10" s="189"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="189"/>
+      <c r="AH10" s="189"/>
+      <c r="AI10" s="189"/>
+      <c r="AJ10" s="189"/>
+      <c r="AK10" s="189"/>
+      <c r="AL10" s="189"/>
+      <c r="AM10" s="189"/>
+      <c r="AN10" s="189"/>
+      <c r="AO10" s="189"/>
+      <c r="AP10" s="189"/>
+      <c r="AQ10" s="189"/>
+      <c r="AR10" s="189"/>
+      <c r="AS10" s="189"/>
+      <c r="AT10" s="190"/>
+    </row>
+    <row r="11" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="185"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="189"/>
+      <c r="S11" s="189"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="189"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="189"/>
+      <c r="Y11" s="189"/>
+      <c r="Z11" s="189"/>
+      <c r="AA11" s="189"/>
+      <c r="AB11" s="189"/>
+      <c r="AC11" s="189"/>
+      <c r="AD11" s="189"/>
+      <c r="AE11" s="189"/>
+      <c r="AF11" s="189"/>
+      <c r="AG11" s="189"/>
+      <c r="AH11" s="189"/>
+      <c r="AI11" s="189"/>
+      <c r="AJ11" s="189"/>
+      <c r="AK11" s="189"/>
+      <c r="AL11" s="189"/>
+      <c r="AM11" s="189"/>
+      <c r="AN11" s="189"/>
+      <c r="AO11" s="189"/>
+      <c r="AP11" s="189"/>
+      <c r="AQ11" s="189"/>
+      <c r="AR11" s="189"/>
+      <c r="AS11" s="189"/>
+      <c r="AT11" s="190"/>
+    </row>
+    <row r="12" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="185"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="189"/>
+      <c r="AI12" s="189"/>
+      <c r="AJ12" s="189"/>
+      <c r="AK12" s="189"/>
+      <c r="AL12" s="189"/>
+      <c r="AM12" s="189"/>
+      <c r="AN12" s="189"/>
+      <c r="AO12" s="189"/>
+      <c r="AP12" s="189"/>
+      <c r="AQ12" s="189"/>
+      <c r="AR12" s="189"/>
+      <c r="AS12" s="189"/>
+      <c r="AT12" s="190"/>
+    </row>
+    <row r="13" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="185"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="189"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="189"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="189"/>
+      <c r="AE13" s="189"/>
+      <c r="AF13" s="189"/>
+      <c r="AG13" s="189"/>
+      <c r="AH13" s="189"/>
+      <c r="AI13" s="189"/>
+      <c r="AJ13" s="189"/>
+      <c r="AK13" s="189"/>
+      <c r="AL13" s="189"/>
+      <c r="AM13" s="189"/>
+      <c r="AN13" s="189"/>
+      <c r="AO13" s="189"/>
+      <c r="AP13" s="189"/>
+      <c r="AQ13" s="189"/>
+      <c r="AR13" s="189"/>
+      <c r="AS13" s="189"/>
+      <c r="AT13" s="190"/>
+    </row>
+    <row r="14" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="185"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="189"/>
+      <c r="V14" s="189"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="189"/>
+      <c r="AA14" s="189"/>
+      <c r="AB14" s="189"/>
+      <c r="AC14" s="189"/>
+      <c r="AD14" s="189"/>
+      <c r="AE14" s="189"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="189"/>
+      <c r="AH14" s="189"/>
+      <c r="AI14" s="189"/>
+      <c r="AJ14" s="189"/>
+      <c r="AK14" s="189"/>
+      <c r="AL14" s="189"/>
+      <c r="AM14" s="189"/>
+      <c r="AN14" s="189"/>
+      <c r="AO14" s="189"/>
+      <c r="AP14" s="189"/>
+      <c r="AQ14" s="189"/>
+      <c r="AR14" s="189"/>
+      <c r="AS14" s="189"/>
+      <c r="AT14" s="190"/>
+    </row>
+    <row r="15" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="185"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="189"/>
+      <c r="V15" s="189"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="189"/>
+      <c r="Y15" s="189"/>
+      <c r="Z15" s="189"/>
+      <c r="AA15" s="189"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="189"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="189"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="189"/>
+      <c r="AH15" s="189"/>
+      <c r="AI15" s="189"/>
+      <c r="AJ15" s="189"/>
+      <c r="AK15" s="189"/>
+      <c r="AL15" s="189"/>
+      <c r="AM15" s="189"/>
+      <c r="AN15" s="189"/>
+      <c r="AO15" s="189"/>
+      <c r="AP15" s="189"/>
+      <c r="AQ15" s="189"/>
+      <c r="AR15" s="189"/>
+      <c r="AS15" s="189"/>
+      <c r="AT15" s="190"/>
+    </row>
+    <row r="16" spans="2:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="185"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="189"/>
+      <c r="S16" s="189"/>
+      <c r="T16" s="189"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="189"/>
+      <c r="W16" s="189"/>
+      <c r="X16" s="189"/>
+      <c r="Y16" s="189"/>
+      <c r="Z16" s="189"/>
+      <c r="AA16" s="189"/>
+      <c r="AB16" s="189"/>
+      <c r="AC16" s="189"/>
+      <c r="AD16" s="189"/>
+      <c r="AE16" s="189"/>
+      <c r="AF16" s="189"/>
+      <c r="AG16" s="189"/>
+      <c r="AH16" s="189"/>
+      <c r="AI16" s="189"/>
+      <c r="AJ16" s="189"/>
+      <c r="AK16" s="189"/>
+      <c r="AL16" s="189"/>
+      <c r="AM16" s="189"/>
+      <c r="AN16" s="189"/>
+      <c r="AO16" s="189"/>
+      <c r="AP16" s="189"/>
+      <c r="AQ16" s="189"/>
+      <c r="AR16" s="189"/>
+      <c r="AS16" s="189"/>
+      <c r="AT16" s="190"/>
+    </row>
+    <row r="17" spans="4:46" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="185"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="189"/>
+      <c r="T17" s="189"/>
+      <c r="U17" s="189"/>
+      <c r="V17" s="189"/>
+      <c r="W17" s="189"/>
+      <c r="X17" s="189"/>
+      <c r="Y17" s="189"/>
+      <c r="Z17" s="189"/>
+      <c r="AA17" s="189"/>
+      <c r="AB17" s="189"/>
+      <c r="AC17" s="189"/>
+      <c r="AD17" s="189"/>
+      <c r="AE17" s="189"/>
+      <c r="AF17" s="189"/>
+      <c r="AG17" s="189"/>
+      <c r="AH17" s="189"/>
+      <c r="AI17" s="189"/>
+      <c r="AJ17" s="189"/>
+      <c r="AK17" s="189"/>
+      <c r="AL17" s="189"/>
+      <c r="AM17" s="189"/>
+      <c r="AN17" s="189"/>
+      <c r="AO17" s="189"/>
+      <c r="AP17" s="189"/>
+      <c r="AQ17" s="189"/>
+      <c r="AR17" s="189"/>
+      <c r="AS17" s="189"/>
+      <c r="AT17" s="190"/>
+    </row>
+    <row r="18" spans="4:46" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:AT8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:AT9"/>
-    <mergeCell ref="I7:AT7"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:AT10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:AT11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:AT12"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="I16:AT16"/>
     <mergeCell ref="D17:H17"/>
@@ -18560,6 +18616,18 @@
     <mergeCell ref="I14:AT14"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="I15:AT15"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:AT10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:AT11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:AT12"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:AT8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:AT9"/>
+    <mergeCell ref="I7:AT7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
